--- a/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_SOx.xlsx
+++ b/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_SOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>0.0003637895980559524</v>
+        <v>0.001612472813004762</v>
       </c>
       <c r="C2">
-        <v>8.324999999999999E-05</v>
+        <v>0.000369</v>
       </c>
       <c r="D2">
-        <v>2.389612175743144E-05</v>
+        <v>0.0001059179450869935</v>
       </c>
       <c r="E2">
-        <v>1.021743157619029E-05</v>
+        <v>4.528807509446506E-05</v>
       </c>
       <c r="F2">
-        <v>7.459944693885635E-05</v>
+        <v>0.000330657008053309</v>
       </c>
       <c r="G2">
-        <v>3.226026311182234E-05</v>
+        <v>0.0001429914364956449</v>
       </c>
       <c r="H2">
-        <v>1.594110436311331E-06</v>
+        <v>7.06578679878536E-06</v>
       </c>
       <c r="I2">
-        <v>0.0005896069718765641</v>
+        <v>0.002613393064533961</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>0.0003645619751218889</v>
+        <v>0.001615896322161885</v>
       </c>
       <c r="C3">
-        <v>9.57375E-05</v>
+        <v>0.00042435</v>
       </c>
       <c r="D3">
-        <v>2.389612175743144E-05</v>
+        <v>0.0001059179450869935</v>
       </c>
       <c r="E3">
-        <v>1.066166773167682E-05</v>
+        <v>4.725712183770267E-05</v>
       </c>
       <c r="F3">
-        <v>7.679354831941091E-05</v>
+        <v>0.000340382214172524</v>
       </c>
       <c r="G3">
-        <v>2.725436021516024E-05</v>
+        <v>0.0001208031101428724</v>
       </c>
       <c r="H3">
-        <v>1.594110436311331E-06</v>
+        <v>7.06578679878536E-06</v>
       </c>
       <c r="I3">
-        <v>0.0006004992835818795</v>
+        <v>0.002661672500200763</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>0.0003722857457812509</v>
+        <v>0.001650131413733111</v>
       </c>
       <c r="C4">
-        <v>5.827500000000001E-05</v>
+        <v>0.0002583000000000001</v>
       </c>
       <c r="D4">
-        <v>1.593074783828762E-05</v>
+        <v>7.061196339132892E-05</v>
       </c>
       <c r="E4">
-        <v>8.44048695424415E-06</v>
+        <v>3.741188812151461E-05</v>
       </c>
       <c r="F4">
-        <v>5.558390164071649E-05</v>
+        <v>0.0002463718883534461</v>
       </c>
       <c r="G4">
-        <v>1.835497728776098E-05</v>
+        <v>8.135719662683248E-05</v>
       </c>
       <c r="H4">
-        <v>1.062740290874221E-06</v>
+        <v>4.710524532523574E-06</v>
       </c>
       <c r="I4">
-        <v>0.0005299335997931343</v>
+        <v>0.002348894874758757</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>0.0004317587798583386</v>
+        <v>0.001913741618831554</v>
       </c>
       <c r="C5">
-        <v>0.0001290375</v>
+        <v>0.0005719499999999999</v>
       </c>
       <c r="D5">
-        <v>3.186149567657524E-05</v>
+        <v>0.0001412239267826578</v>
       </c>
       <c r="E5">
-        <v>7.996250798757619E-06</v>
+        <v>3.544284137827701E-05</v>
       </c>
       <c r="F5">
-        <v>8.045038395366861E-05</v>
+        <v>0.0003565908910378824</v>
       </c>
       <c r="G5">
-        <v>2.05798230196108E-05</v>
+        <v>9.121867500584245E-05</v>
       </c>
       <c r="H5">
-        <v>2.656850727185553E-06</v>
+        <v>1.177631133130893E-05</v>
       </c>
       <c r="I5">
-        <v>0.0007043410840341365</v>
+        <v>0.003121944264367523</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>0.0004533853377045521</v>
+        <v>0.002009599875230988</v>
       </c>
       <c r="C6">
-        <v>7.908750000000002E-05</v>
+        <v>0.00035055</v>
       </c>
       <c r="D6">
-        <v>3.00914125834322E-05</v>
+        <v>0.0001333781530725103</v>
       </c>
       <c r="E6">
-        <v>8.44048695424415E-06</v>
+        <v>3.741188812151461E-05</v>
       </c>
       <c r="F6">
-        <v>8.410721958792625E-05</v>
+        <v>0.0003727995679032405</v>
       </c>
       <c r="G6">
-        <v>1.891118872072344E-05</v>
+        <v>8.382256622158497E-05</v>
       </c>
       <c r="H6">
-        <v>1.594110436311331E-06</v>
+        <v>7.06578679878536E-06</v>
       </c>
       <c r="I6">
-        <v>0.0006756172559871894</v>
+        <v>0.002994627837348624</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>0.0004472063211770627</v>
+        <v>0.001982211801974007</v>
       </c>
       <c r="C7">
-        <v>0.0001623375</v>
+        <v>0.00071955</v>
       </c>
       <c r="D7">
-        <v>2.301108021085993E-05</v>
+        <v>0.0001019950582319196</v>
       </c>
       <c r="E7">
-        <v>1.066166773167682E-05</v>
+        <v>4.725712183770267E-05</v>
       </c>
       <c r="F7">
-        <v>8.045038395366861E-05</v>
+        <v>0.0003565908910378824</v>
       </c>
       <c r="G7">
-        <v>1.835497728776098E-05</v>
+        <v>8.135719662683248E-05</v>
       </c>
       <c r="H7">
-        <v>1.594110436311331E-06</v>
+        <v>7.06578679878536E-06</v>
       </c>
       <c r="I7">
-        <v>0.0007436160407973403</v>
+        <v>0.00329602785650713</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>0.0005228992736388106</v>
+        <v>0.002317715699372026</v>
       </c>
       <c r="C8">
-        <v>0.00018315</v>
+        <v>0.0008118</v>
       </c>
       <c r="D8">
-        <v>3.186149567657524E-05</v>
+        <v>0.0001412239267826578</v>
       </c>
       <c r="E8">
-        <v>1.110590388716335E-05</v>
+        <v>4.922616858094028E-05</v>
       </c>
       <c r="F8">
-        <v>5.997210440182565E-05</v>
+        <v>0.0002658223005918758</v>
       </c>
       <c r="G8">
-        <v>1.390528582406135E-05</v>
+        <v>6.163423986881243E-05</v>
       </c>
       <c r="H8">
-        <v>3.719591018059774E-06</v>
+        <v>1.648683586383251E-05</v>
       </c>
       <c r="I8">
-        <v>0.0008266136544464959</v>
+        <v>0.003663909171060145</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,25 +641,25 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>0.0006055436196939847</v>
+        <v>0.002684031179184149</v>
       </c>
       <c r="C9">
-        <v>4.995000000000001E-05</v>
+        <v>0.0002214</v>
       </c>
       <c r="D9">
-        <v>1.947091402457377E-05</v>
+        <v>8.630351081162424E-05</v>
       </c>
       <c r="E9">
-        <v>9.773195420703756E-06</v>
+        <v>4.331902835122744E-05</v>
       </c>
       <c r="F9">
-        <v>4.46133947379435E-05</v>
+        <v>0.0001977458577573712</v>
       </c>
       <c r="G9">
-        <v>1.168044009221153E-05</v>
+        <v>5.177276148980247E-05</v>
       </c>
       <c r="I9">
-        <v>0.0007410315639694171</v>
+        <v>0.003284572337594174</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -667,28 +667,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>0.0005785104223862174</v>
+        <v>0.002564208358684857</v>
       </c>
       <c r="C10">
-        <v>2.91375E-05</v>
+        <v>0.00012915</v>
       </c>
       <c r="D10">
-        <v>1.858587247800224E-05</v>
+        <v>8.238062395655043E-05</v>
       </c>
       <c r="E10">
-        <v>1.599250159751524E-05</v>
+        <v>7.088568275655402E-05</v>
       </c>
       <c r="F10">
-        <v>3.583698921572509E-05</v>
+        <v>0.0001588450332805112</v>
       </c>
       <c r="G10">
-        <v>6.118325762586993E-06</v>
+        <v>2.711906554227749E-05</v>
       </c>
       <c r="H10">
-        <v>5.313701454371105E-07</v>
+        <v>2.355262266261787E-06</v>
       </c>
       <c r="I10">
-        <v>0.0006847129815854841</v>
+        <v>0.003034944026487012</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,28 +696,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>0.0004178559926714867</v>
+        <v>0.001852118454003347</v>
       </c>
       <c r="C11">
-        <v>2.497500000000001E-05</v>
+        <v>0.0001107</v>
       </c>
       <c r="D11">
-        <v>1.50457062917161E-05</v>
+        <v>6.668907653625513E-05</v>
       </c>
       <c r="E11">
-        <v>1.332708466459603E-05</v>
+        <v>5.907140229712832E-05</v>
       </c>
       <c r="F11">
-        <v>1.609007679073371E-05</v>
+        <v>7.131817820757646E-05</v>
       </c>
       <c r="G11">
-        <v>9.455594360361721E-06</v>
+        <v>4.191128311079249E-05</v>
       </c>
       <c r="H11">
-        <v>5.313701454371105E-07</v>
+        <v>2.355262266261787E-06</v>
       </c>
       <c r="I11">
-        <v>0.0004972808249243313</v>
+        <v>0.002204163656421362</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,28 +725,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>0.0003753752540449955</v>
+        <v>0.001663825450361602</v>
       </c>
       <c r="C12">
-        <v>7.492500000000001E-05</v>
+        <v>0.0003321</v>
       </c>
       <c r="D12">
-        <v>1.327562319857302E-05</v>
+        <v>5.884330282610746E-05</v>
       </c>
       <c r="E12">
-        <v>1.155014004264989E-05</v>
+        <v>5.119521532417789E-05</v>
       </c>
       <c r="F12">
-        <v>1.535870966388218E-05</v>
+        <v>6.807644283450483E-05</v>
       </c>
       <c r="G12">
-        <v>5.005902896662084E-06</v>
+        <v>2.218832635277248E-05</v>
       </c>
       <c r="H12">
-        <v>5.313701454371105E-07</v>
+        <v>2.355262266261787E-06</v>
       </c>
       <c r="I12">
-        <v>0.0004960219999921998</v>
+        <v>0.002198583999965426</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>0.0002734214813414166</v>
+        <v>0.001211922241621413</v>
       </c>
       <c r="C13">
-        <v>1.665E-05</v>
+        <v>7.38E-05</v>
       </c>
       <c r="D13">
-        <v>1.150554010542997E-05</v>
+        <v>5.099752911595981E-05</v>
       </c>
       <c r="E13">
-        <v>1.155014004264989E-05</v>
+        <v>5.119521532417789E-05</v>
       </c>
       <c r="F13">
-        <v>1.170187402962452E-05</v>
+        <v>5.186776596914654E-05</v>
       </c>
       <c r="G13">
-        <v>4.449691463699633E-06</v>
+        <v>1.972295675801999E-05</v>
       </c>
       <c r="H13">
-        <v>5.313701454371105E-07</v>
+        <v>2.355262266261787E-06</v>
       </c>
       <c r="I13">
-        <v>0.0003298100971282577</v>
+        <v>0.001461860971054979</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>0.0001405726260003892</v>
+        <v>0.0006230786665963198</v>
       </c>
       <c r="C14">
-        <v>8.325000000000002E-06</v>
+        <v>3.69E-05</v>
       </c>
       <c r="D14">
-        <v>4.425207732857677E-06</v>
+        <v>1.961443427536914E-05</v>
       </c>
       <c r="E14">
-        <v>7.552014643271082E-06</v>
+        <v>3.347379463503939E-05</v>
       </c>
       <c r="F14">
-        <v>8.776405522218395E-06</v>
+        <v>3.89008244768599E-05</v>
       </c>
       <c r="G14">
-        <v>1.668634298887362E-06</v>
+        <v>7.396108784257498E-06</v>
       </c>
       <c r="I14">
-        <v>0.0001713198881976238</v>
+        <v>0.0007593638287678458</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,25 +809,25 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>0.0001143118057585583</v>
+        <v>0.0005066793552541501</v>
       </c>
       <c r="C15">
-        <v>2.91375E-05</v>
+        <v>0.00012915</v>
       </c>
       <c r="D15">
-        <v>7.080332372572278E-06</v>
+        <v>3.138309484059063E-05</v>
       </c>
       <c r="E15">
-        <v>2.665416932919205E-06</v>
+        <v>1.181428045942567E-05</v>
       </c>
       <c r="F15">
-        <v>2.194101380554598E-05</v>
+        <v>9.725206119214976E-05</v>
       </c>
       <c r="G15">
-        <v>2.78105716481227E-06</v>
+        <v>1.232684797376249E-05</v>
       </c>
       <c r="I15">
-        <v>0.000177917126034408</v>
+        <v>0.0007886056397200787</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -835,19 +835,19 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>9.345762497828079E-05</v>
+        <v>0.0004142446080118393</v>
       </c>
       <c r="C16">
-        <v>2.497500000000001E-05</v>
+        <v>0.0001107</v>
       </c>
       <c r="F16">
-        <v>9.507772649069922E-06</v>
+        <v>4.214255984993155E-05</v>
       </c>
       <c r="G16">
-        <v>2.78105716481227E-06</v>
+        <v>1.232684797376249E-05</v>
       </c>
       <c r="I16">
-        <v>0.000130721454792163</v>
+        <v>0.0005794140158355334</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -855,22 +855,22 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>5.097688635178953E-05</v>
+        <v>0.000225951604370094</v>
       </c>
       <c r="C17">
-        <v>4.162500000000001E-06</v>
+        <v>1.845E-05</v>
       </c>
       <c r="D17">
-        <v>2.655124639714606E-06</v>
+        <v>1.17686605652215E-05</v>
       </c>
       <c r="F17">
-        <v>6.582304141663792E-06</v>
+        <v>2.917561835764493E-05</v>
       </c>
       <c r="G17">
-        <v>1.112422865924908E-06</v>
+        <v>4.930739189504997E-06</v>
       </c>
       <c r="I17">
-        <v>6.548923799909284E-05</v>
+        <v>0.0002902766224824654</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -878,22 +878,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>4.016360742868267E-05</v>
+        <v>0.0001780224761703771</v>
       </c>
       <c r="C18">
-        <v>4.162500000000001E-06</v>
+        <v>1.845E-05</v>
       </c>
       <c r="D18">
-        <v>8.850415465715348E-07</v>
+        <v>3.922886855073829E-06</v>
       </c>
       <c r="F18">
-        <v>3.656835634257663E-06</v>
+        <v>1.620867686535829E-05</v>
       </c>
       <c r="G18">
-        <v>2.224845731849817E-06</v>
+        <v>9.861478379009995E-06</v>
       </c>
       <c r="I18">
-        <v>5.109283034136169E-05</v>
+        <v>0.0002264655182698191</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -901,25 +901,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>3.861885329681022E-05</v>
+        <v>0.0001711754578561319</v>
       </c>
       <c r="C19">
-        <v>2.08125E-05</v>
+        <v>9.225000000000001E-05</v>
       </c>
       <c r="D19">
-        <v>1.77008309314307E-06</v>
+        <v>7.845773710147657E-06</v>
       </c>
       <c r="E19">
-        <v>1.776944621946137E-06</v>
+        <v>7.876186972950445E-06</v>
       </c>
       <c r="F19">
-        <v>8.776405522218395E-06</v>
+        <v>3.89008244768599E-05</v>
       </c>
       <c r="G19">
-        <v>2.224845731849817E-06</v>
+        <v>9.861478379009995E-06</v>
       </c>
       <c r="I19">
-        <v>7.397963226596764E-05</v>
+        <v>0.0003279097213950998</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -927,19 +927,19 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>7.105869006613087E-05</v>
+        <v>0.0003149628424552826</v>
       </c>
       <c r="C20">
-        <v>8.325000000000002E-06</v>
+        <v>3.69E-05</v>
       </c>
       <c r="F20">
-        <v>8.045038395366857E-06</v>
+        <v>3.565908910378823E-05</v>
       </c>
       <c r="G20">
-        <v>5.005902896662084E-06</v>
+        <v>2.218832635277248E-05</v>
       </c>
       <c r="I20">
-        <v>9.243463135815982E-05</v>
+        <v>0.0004097102579118433</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -947,28 +947,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>0.0002394368904402235</v>
+        <v>0.001061287838708017</v>
       </c>
       <c r="C21">
-        <v>1.24875E-05</v>
+        <v>5.535E-05</v>
       </c>
       <c r="D21">
-        <v>1.947091402457377E-05</v>
+        <v>8.630351081162424E-05</v>
       </c>
       <c r="E21">
-        <v>2.665416932919205E-06</v>
+        <v>1.181428045942567E-05</v>
       </c>
       <c r="F21">
-        <v>2.706058369350669E-05</v>
+        <v>0.0001199442088036513</v>
       </c>
       <c r="G21">
-        <v>5.005902896662084E-06</v>
+        <v>2.218832635277248E-05</v>
       </c>
       <c r="H21">
-        <v>1.062740290874221E-06</v>
+        <v>4.710524532523574E-06</v>
       </c>
       <c r="I21">
-        <v>0.0003071899482787595</v>
+        <v>0.001361598689668014</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -976,28 +976,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>0.0004101322220121248</v>
+        <v>0.001817883362432121</v>
       </c>
       <c r="C22">
-        <v>1.24875E-05</v>
+        <v>5.535E-05</v>
       </c>
       <c r="D22">
-        <v>2.56662048505745E-05</v>
+        <v>0.0001137637187971411</v>
       </c>
       <c r="E22">
-        <v>1.55482654420287E-05</v>
+        <v>6.89166360133164E-05</v>
       </c>
       <c r="F22">
-        <v>4.827023037220114E-05</v>
+        <v>0.0002139545346227295</v>
       </c>
       <c r="G22">
-        <v>1.724255442183608E-05</v>
+        <v>7.642645743732744E-05</v>
       </c>
       <c r="H22">
-        <v>5.313701454371105E-07</v>
+        <v>2.355262266261787E-06</v>
       </c>
       <c r="I22">
-        <v>0.0005298783472442024</v>
+        <v>0.002348649971568897</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1005,28 +1005,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>0.0005298506672322363</v>
+        <v>0.002348527281786129</v>
       </c>
       <c r="C23">
-        <v>1.24875E-05</v>
+        <v>5.535E-05</v>
       </c>
       <c r="D23">
-        <v>1.239058165200148E-05</v>
+        <v>5.492041597103361E-05</v>
       </c>
       <c r="E23">
-        <v>1.42155569755691E-05</v>
+        <v>6.300949578360356E-05</v>
       </c>
       <c r="F23">
-        <v>2.852331794720977E-05</v>
+        <v>0.0001264276795497947</v>
       </c>
       <c r="G23">
-        <v>8.899382927399266E-06</v>
+        <v>3.944591351603998E-05</v>
       </c>
       <c r="H23">
-        <v>1.062740290874221E-06</v>
+        <v>4.710524532523574E-06</v>
       </c>
       <c r="I23">
-        <v>0.0006074297470252901</v>
+        <v>0.002692391311139124</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1034,28 +1034,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>0.0005136307488475761</v>
+        <v>0.002276633589486554</v>
       </c>
       <c r="C24">
-        <v>6.660000000000002E-05</v>
+        <v>0.0002952</v>
       </c>
       <c r="D24">
-        <v>2.124099711771684E-05</v>
+        <v>9.414928452177198E-05</v>
       </c>
       <c r="E24">
-        <v>1.243861235362296E-05</v>
+        <v>5.513330881065314E-05</v>
       </c>
       <c r="F24">
-        <v>3.949382484998274E-05</v>
+        <v>0.0001750537101458695</v>
       </c>
       <c r="G24">
-        <v>1.613013155591117E-05</v>
+        <v>7.149571824782247E-05</v>
       </c>
       <c r="H24">
-        <v>1.594110436311331E-06</v>
+        <v>7.06578679878536E-06</v>
       </c>
       <c r="I24">
-        <v>0.000671128425161121</v>
+        <v>0.002974731398011456</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1063,28 +1063,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>0.0004441168129133178</v>
+        <v>0.001968517765345517</v>
       </c>
       <c r="C25">
-        <v>9.1575E-05</v>
+        <v>0.0004059</v>
       </c>
       <c r="D25">
-        <v>1.681578938485915E-05</v>
+        <v>7.45348502464028E-05</v>
       </c>
       <c r="E25">
-        <v>2.043486315238058E-05</v>
+        <v>9.057615018893012E-05</v>
       </c>
       <c r="F25">
-        <v>7.094261130459867E-05</v>
+        <v>0.0003144483311879508</v>
       </c>
       <c r="G25">
-        <v>1.613013155591117E-05</v>
+        <v>7.149571824782247E-05</v>
       </c>
       <c r="H25">
-        <v>4.782331308933994E-06</v>
+        <v>2.119736039635608E-05</v>
       </c>
       <c r="I25">
-        <v>0.0006647975396200014</v>
+        <v>0.002946670175612979</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1092,28 +1092,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>0.0003746028769790593</v>
+        <v>0.001660401941204479</v>
       </c>
       <c r="C26">
-        <v>7.076250000000001E-05</v>
+        <v>0.00031365</v>
       </c>
       <c r="D26">
-        <v>2.124099711771684E-05</v>
+        <v>9.414928452177198E-05</v>
       </c>
       <c r="E26">
-        <v>1.021743157619029E-05</v>
+        <v>4.528807509446506E-05</v>
       </c>
       <c r="F26">
-        <v>7.971901682681705E-05</v>
+        <v>0.0003533491556648107</v>
       </c>
       <c r="G26">
-        <v>3.837858887440934E-05</v>
+        <v>0.0001701105020379225</v>
       </c>
       <c r="H26">
-        <v>1.594110436311331E-06</v>
+        <v>7.06578679878536E-06</v>
       </c>
       <c r="I26">
-        <v>0.0005965155218105041</v>
+        <v>0.002644014745322235</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1121,28 +1121,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>0.0003537486961987818</v>
+        <v>0.001567967193962169</v>
       </c>
       <c r="C27">
-        <v>0.000108225</v>
+        <v>0.0004797</v>
       </c>
       <c r="D27">
-        <v>2.124099711771684E-05</v>
+        <v>9.414928452177198E-05</v>
       </c>
       <c r="E27">
-        <v>8.884723109730685E-06</v>
+        <v>3.938093486475223E-05</v>
       </c>
       <c r="F27">
-        <v>8.703268809533237E-05</v>
+        <v>0.0003857665093955272</v>
       </c>
       <c r="G27">
-        <v>3.504132027663461E-05</v>
+        <v>0.0001553182844694074</v>
       </c>
       <c r="H27">
-        <v>1.062740290874221E-06</v>
+        <v>4.710524532523574E-06</v>
       </c>
       <c r="I27">
-        <v>0.0006152361650890705</v>
+        <v>0.002726992731746151</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1150,28 +1150,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>0.0003498868108691008</v>
+        <v>0.001550849648176555</v>
       </c>
       <c r="C28">
-        <v>4.57875E-05</v>
+        <v>0.00020295</v>
       </c>
       <c r="D28">
-        <v>1.239058165200148E-05</v>
+        <v>5.492041597103361E-05</v>
       </c>
       <c r="E28">
-        <v>1.066166773167682E-05</v>
+        <v>4.725712183770267E-05</v>
       </c>
       <c r="F28">
-        <v>4.68074961184981E-05</v>
+        <v>0.0002074710638765862</v>
       </c>
       <c r="G28">
-        <v>1.891118872072344E-05</v>
+        <v>8.382256622158497E-05</v>
       </c>
       <c r="H28">
-        <v>1.594110436311331E-06</v>
+        <v>7.06578679878536E-06</v>
       </c>
       <c r="I28">
-        <v>0.000486039355528312</v>
+        <v>0.002154336602882247</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1179,28 +1179,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>0.0004325311569242746</v>
+        <v>0.001917165127988676</v>
       </c>
       <c r="C29">
-        <v>0.0001290375</v>
+        <v>0.0005719499999999999</v>
       </c>
       <c r="D29">
-        <v>3.982686959571906E-05</v>
+        <v>0.0001765299084783223</v>
       </c>
       <c r="E29">
-        <v>1.332708466459603E-05</v>
+        <v>5.907140229712832E-05</v>
       </c>
       <c r="F29">
-        <v>7.679354831941091E-05</v>
+        <v>0.000340382214172524</v>
       </c>
       <c r="G29">
-        <v>2.836678308108515E-05</v>
+        <v>0.0001257338493323774</v>
       </c>
       <c r="H29">
-        <v>4.250961163496884E-06</v>
+        <v>1.884209813009429E-05</v>
       </c>
       <c r="I29">
-        <v>0.0007241339037485828</v>
+        <v>0.003209674600399122</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1208,28 +1208,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>0.0003854161559021664</v>
+        <v>0.001708331069404195</v>
       </c>
       <c r="C30">
-        <v>6.243749999999999E-05</v>
+        <v>0.00027675</v>
       </c>
       <c r="D30">
-        <v>3.186149567657524E-05</v>
+        <v>0.0001412239267826578</v>
       </c>
       <c r="E30">
-        <v>7.107778487784549E-06</v>
+        <v>3.150474789180178E-05</v>
       </c>
       <c r="F30">
-        <v>8.556995384162929E-05</v>
+        <v>0.0003792830386493839</v>
       </c>
       <c r="G30">
-        <v>1.390528582406135E-05</v>
+        <v>6.163423986881243E-05</v>
       </c>
       <c r="H30">
-        <v>2.125480581748442E-06</v>
+        <v>9.421049065047147E-06</v>
       </c>
       <c r="I30">
-        <v>0.0005884236503139652</v>
+        <v>0.002608148071661898</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1237,28 +1237,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>0.0004603367312979782</v>
+        <v>0.002040411457645093</v>
       </c>
       <c r="C31">
-        <v>0.000108225</v>
+        <v>0.0004797</v>
       </c>
       <c r="D31">
-        <v>3.097645413000373E-05</v>
+        <v>0.000137301039927584</v>
       </c>
       <c r="E31">
-        <v>8.884723109730685E-06</v>
+        <v>3.938093486475223E-05</v>
       </c>
       <c r="F31">
-        <v>7.31367126851533E-05</v>
+        <v>0.0003241735373071658</v>
       </c>
       <c r="G31">
-        <v>1.946740015368588E-05</v>
+        <v>8.628793581633741E-05</v>
       </c>
       <c r="H31">
-        <v>2.656850727185553E-06</v>
+        <v>1.177631133130893E-05</v>
       </c>
       <c r="I31">
-        <v>0.0007036838721037373</v>
+        <v>0.003119031216892242</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1266,28 +1266,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>0.0005344849296278536</v>
+        <v>0.002369068336728864</v>
       </c>
       <c r="C32">
-        <v>0.0001540125</v>
+        <v>0.0006826499999999998</v>
       </c>
       <c r="D32">
-        <v>2.920637103686066E-05</v>
+        <v>0.0001294552662174364</v>
       </c>
       <c r="E32">
-        <v>1.066166773167682E-05</v>
+        <v>4.725712183770267E-05</v>
       </c>
       <c r="F32">
-        <v>5.997210440182565E-05</v>
+        <v>0.0002658223005918758</v>
       </c>
       <c r="G32">
-        <v>2.502951448331043E-05</v>
+        <v>0.0001109416317638625</v>
       </c>
       <c r="H32">
-        <v>2.656850727185553E-06</v>
+        <v>1.177631133130893E-05</v>
       </c>
       <c r="I32">
-        <v>0.0008160239380087128</v>
+        <v>0.00361697096847105</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1295,25 +1295,25 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>0.0006148121444852189</v>
+        <v>0.002725113289069619</v>
       </c>
       <c r="C33">
-        <v>3.74625E-05</v>
+        <v>0.00016605</v>
       </c>
       <c r="D33">
-        <v>1.416066474514456E-05</v>
+        <v>6.276618968118126E-05</v>
       </c>
       <c r="E33">
-        <v>8.884723109730685E-06</v>
+        <v>3.938093486475223E-05</v>
       </c>
       <c r="F33">
-        <v>3.876245772313122E-05</v>
+        <v>0.0001718119747727979</v>
       </c>
       <c r="G33">
-        <v>1.056801722628662E-05</v>
+        <v>4.684202230029748E-05</v>
       </c>
       <c r="I33">
-        <v>0.000724650507289512</v>
+        <v>0.003211964410688648</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1321,28 +1321,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>0.0006379834564633053</v>
+        <v>0.002827818563783298</v>
       </c>
       <c r="C34">
-        <v>1.24875E-05</v>
+        <v>5.535E-05</v>
       </c>
       <c r="D34">
-        <v>1.239058165200148E-05</v>
+        <v>5.492041597103361E-05</v>
       </c>
       <c r="E34">
-        <v>1.55482654420287E-05</v>
+        <v>6.89166360133164E-05</v>
       </c>
       <c r="F34">
-        <v>3.949382484998274E-05</v>
+        <v>0.0001750537101458695</v>
       </c>
       <c r="G34">
-        <v>3.893480030737178E-06</v>
+        <v>1.725758716326749E-05</v>
       </c>
       <c r="H34">
-        <v>1.062740290874221E-06</v>
+        <v>4.710524532523574E-06</v>
       </c>
       <c r="I34">
-        <v>0.0007228598487289295</v>
+        <v>0.003204027437609309</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1350,28 +1350,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>0.0004464339441111263</v>
+        <v>0.001978788292816885</v>
       </c>
       <c r="C35">
-        <v>1.24875E-05</v>
+        <v>5.535E-05</v>
       </c>
       <c r="D35">
-        <v>1.150554010542997E-05</v>
+        <v>5.099752911595981E-05</v>
       </c>
       <c r="E35">
-        <v>1.199437619813642E-05</v>
+        <v>5.316426206741549E-05</v>
       </c>
       <c r="F35">
-        <v>2.047827955184291E-05</v>
+        <v>9.076859044600641E-05</v>
       </c>
       <c r="G35">
-        <v>1.168044009221153E-05</v>
+        <v>5.177276148980247E-05</v>
       </c>
       <c r="H35">
-        <v>1.062740290874221E-06</v>
+        <v>4.710524532523574E-06</v>
       </c>
       <c r="I35">
-        <v>0.0005156428203496213</v>
+        <v>0.002285551960468593</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1379,28 +1379,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>0.0004248073862649127</v>
+        <v>0.001882930036417451</v>
       </c>
       <c r="C36">
-        <v>2.497500000000001E-05</v>
+        <v>0.0001107</v>
       </c>
       <c r="D36">
-        <v>7.965373919143811E-06</v>
+        <v>3.530598169566446E-05</v>
       </c>
       <c r="E36">
-        <v>1.465979313105563E-05</v>
+        <v>6.497854252684119E-05</v>
       </c>
       <c r="F36">
-        <v>1.755281104443679E-05</v>
+        <v>7.780164895371979E-05</v>
       </c>
       <c r="G36">
-        <v>5.005902896662084E-06</v>
+        <v>2.218832635277248E-05</v>
       </c>
       <c r="H36">
-        <v>1.062740290874221E-06</v>
+        <v>4.710524532523574E-06</v>
       </c>
       <c r="I36">
-        <v>0.0004960290075470851</v>
+        <v>0.002198615060478972</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1408,28 +1408,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>0.0002996823015832475</v>
+        <v>0.001328321552963583</v>
       </c>
       <c r="C37">
-        <v>8.325000000000002E-06</v>
+        <v>3.69E-05</v>
       </c>
       <c r="D37">
-        <v>9.735457012286883E-06</v>
+        <v>4.315175540581212E-05</v>
       </c>
       <c r="E37">
-        <v>1.066166773167682E-05</v>
+        <v>4.725712183770267E-05</v>
       </c>
       <c r="F37">
-        <v>2.340374805924905E-05</v>
+        <v>0.0001037355319382931</v>
       </c>
       <c r="G37">
-        <v>5.56211432962454E-06</v>
+        <v>2.465369594752499E-05</v>
       </c>
       <c r="H37">
-        <v>1.062740290874221E-06</v>
+        <v>4.710524532523574E-06</v>
       </c>
       <c r="I37">
-        <v>0.000358433029006959</v>
+        <v>0.00158873018262544</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1437,25 +1437,25 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>0.0001544754131872409</v>
+        <v>0.0006847018314245275</v>
       </c>
       <c r="C38">
-        <v>8.325000000000002E-06</v>
+        <v>3.69E-05</v>
       </c>
       <c r="D38">
-        <v>4.425207732857677E-06</v>
+        <v>1.961443427536914E-05</v>
       </c>
       <c r="E38">
-        <v>7.552014643271082E-06</v>
+        <v>3.347379463503939E-05</v>
       </c>
       <c r="F38">
-        <v>1.023913977592146E-05</v>
+        <v>4.538429522300321E-05</v>
       </c>
       <c r="G38">
-        <v>2.78105716481227E-06</v>
+        <v>1.232684797376249E-05</v>
       </c>
       <c r="I38">
-        <v>0.0001877978325041034</v>
+        <v>0.0008324012035317019</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1463,25 +1463,25 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>0.0001336212324069634</v>
+        <v>0.0005922670841822159</v>
       </c>
       <c r="C39">
-        <v>4.57875E-05</v>
+        <v>0.00020295</v>
       </c>
       <c r="D39">
-        <v>7.965373919143811E-06</v>
+        <v>3.530598169566446E-05</v>
       </c>
       <c r="E39">
-        <v>1.776944621946137E-06</v>
+        <v>7.876186972950445E-06</v>
       </c>
       <c r="F39">
-        <v>1.609007679073371E-05</v>
+        <v>7.131817820757646E-05</v>
       </c>
       <c r="G39">
-        <v>2.224845731849817E-06</v>
+        <v>9.861478379009995E-06</v>
       </c>
       <c r="I39">
-        <v>0.0002074659734706369</v>
+        <v>0.0009195789094374173</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,19 +1489,19 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>0.0001027261497695153</v>
+        <v>0.0004553267178973108</v>
       </c>
       <c r="C40">
-        <v>4.57875E-05</v>
+        <v>0.00020295</v>
       </c>
       <c r="F40">
-        <v>1.243324115647605E-05</v>
+        <v>5.510950134221818E-05</v>
       </c>
       <c r="G40">
-        <v>3.893480030737178E-06</v>
+        <v>1.725758716326749E-05</v>
       </c>
       <c r="I40">
-        <v>0.0001648403709567285</v>
+        <v>0.0007306438064027964</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1509,22 +1509,22 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>6.333491940676878E-05</v>
+        <v>0.0002807277508840563</v>
       </c>
       <c r="C41">
-        <v>4.162500000000001E-06</v>
+        <v>1.845E-05</v>
       </c>
       <c r="D41">
-        <v>2.655124639714606E-06</v>
+        <v>1.17686605652215E-05</v>
       </c>
       <c r="F41">
-        <v>6.582304141663792E-06</v>
+        <v>2.917561835764493E-05</v>
       </c>
       <c r="G41">
-        <v>1.668634298887362E-06</v>
+        <v>7.396108784257498E-06</v>
       </c>
       <c r="I41">
-        <v>7.840348248703454E-05</v>
+        <v>0.0003475181385911801</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1532,22 +1532,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>5.406639461553433E-05</v>
+        <v>0.0002396456409985845</v>
       </c>
       <c r="C42">
-        <v>4.162500000000001E-06</v>
+        <v>1.845E-05</v>
       </c>
       <c r="D42">
-        <v>1.77008309314307E-06</v>
+        <v>7.845773710147657E-06</v>
       </c>
       <c r="F42">
-        <v>3.656835634257663E-06</v>
+        <v>1.620867686535829E-05</v>
       </c>
       <c r="G42">
-        <v>2.224845731849817E-06</v>
+        <v>9.861478379009995E-06</v>
       </c>
       <c r="I42">
-        <v>6.588065907478487E-05</v>
+        <v>0.0002920115699531005</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1555,25 +1555,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>3.939123036274645E-05</v>
+        <v>0.0001745989670132545</v>
       </c>
       <c r="C43">
-        <v>1.24875E-05</v>
+        <v>5.535E-05</v>
       </c>
       <c r="D43">
-        <v>1.77008309314307E-06</v>
+        <v>7.845773710147657E-06</v>
       </c>
       <c r="E43">
-        <v>8.884723109730687E-07</v>
+        <v>3.938093486475223E-06</v>
       </c>
       <c r="F43">
-        <v>6.582304141663792E-06</v>
+        <v>2.917561835764493E-05</v>
       </c>
       <c r="G43">
-        <v>3.337268597774725E-06</v>
+        <v>1.4792217568515E-05</v>
       </c>
       <c r="I43">
-        <v>6.445685850630112E-05</v>
+        <v>0.0002857006701360373</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1581,19 +1581,19 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>7.028631300019462E-05</v>
+        <v>0.0003115393332981599</v>
       </c>
       <c r="C44">
-        <v>8.325000000000002E-06</v>
+        <v>3.69E-05</v>
       </c>
       <c r="F44">
-        <v>8.776405522218395E-06</v>
+        <v>3.89008244768599E-05</v>
       </c>
       <c r="G44">
-        <v>6.118325762586993E-06</v>
+        <v>2.711906554227749E-05</v>
       </c>
       <c r="I44">
-        <v>9.350604428500001E-05</v>
+        <v>0.0004144592233172973</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1601,28 +1601,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>0.0002409816445720959</v>
+        <v>0.001068134857022262</v>
       </c>
       <c r="C45">
-        <v>1.24875E-05</v>
+        <v>5.535E-05</v>
       </c>
       <c r="D45">
-        <v>1.062049855885842E-05</v>
+        <v>4.707464226088599E-05</v>
       </c>
       <c r="E45">
-        <v>2.221180777432671E-06</v>
+        <v>9.845233716188058E-06</v>
       </c>
       <c r="F45">
-        <v>3.656835634257665E-05</v>
+        <v>0.0001620867686535829</v>
       </c>
       <c r="G45">
-        <v>5.005902896662084E-06</v>
+        <v>2.218832635277248E-05</v>
       </c>
       <c r="H45">
-        <v>2.125480581748442E-06</v>
+        <v>9.421049065047147E-06</v>
       </c>
       <c r="I45">
-        <v>0.0003100105637293742</v>
+        <v>0.001374100877070739</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1630,28 +1630,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>0.0004232626321330401</v>
+        <v>0.001876083018103205</v>
       </c>
       <c r="C46">
-        <v>4.162500000000001E-06</v>
+        <v>1.845E-05</v>
       </c>
       <c r="D46">
-        <v>1.681578938485915E-05</v>
+        <v>7.45348502464028E-05</v>
       </c>
       <c r="E46">
-        <v>1.55482654420287E-05</v>
+        <v>6.89166360133164E-05</v>
       </c>
       <c r="F46">
-        <v>4.900159749905268E-05</v>
+        <v>0.0002171962699958011</v>
       </c>
       <c r="G46">
-        <v>2.280466875146062E-05</v>
+        <v>0.0001010801533848524</v>
       </c>
       <c r="H46">
-        <v>5.313701454371105E-07</v>
+        <v>2.355262266261787E-06</v>
       </c>
       <c r="I46">
-        <v>0.0005321268233558783</v>
+        <v>0.002358616190009839</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1659,28 +1659,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>0.0005391191920234708</v>
+        <v>0.002389609391671601</v>
       </c>
       <c r="C47">
-        <v>1.24875E-05</v>
+        <v>5.535E-05</v>
       </c>
       <c r="D47">
-        <v>1.50457062917161E-05</v>
+        <v>6.668907653625513E-05</v>
       </c>
       <c r="E47">
-        <v>1.332708466459603E-05</v>
+        <v>5.907140229712832E-05</v>
       </c>
       <c r="F47">
-        <v>2.559784943980364E-05</v>
+        <v>0.0001134607380575081</v>
       </c>
       <c r="G47">
-        <v>1.001180579332417E-05</v>
+        <v>4.437665270554496E-05</v>
       </c>
       <c r="H47">
-        <v>5.313701454371105E-07</v>
+        <v>2.355262266261787E-06</v>
       </c>
       <c r="I47">
-        <v>0.0006161205083583479</v>
+        <v>0.002730912523534299</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1688,28 +1688,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>0.0004927765680672986</v>
+        <v>0.002184198842244242</v>
       </c>
       <c r="C48">
-        <v>7.076250000000001E-05</v>
+        <v>0.00031365</v>
       </c>
       <c r="D48">
-        <v>2.389612175743144E-05</v>
+        <v>0.0001059179450869935</v>
       </c>
       <c r="E48">
-        <v>1.377132082008256E-05</v>
+        <v>6.104044904036595E-05</v>
       </c>
       <c r="F48">
-        <v>4.095655910368583E-05</v>
+        <v>0.0001815371808920128</v>
       </c>
       <c r="G48">
-        <v>1.44614972570238E-05</v>
+        <v>6.409960946356497E-05</v>
       </c>
       <c r="H48">
-        <v>2.125480581748442E-06</v>
+        <v>9.421049065047147E-06</v>
       </c>
       <c r="I48">
-        <v>0.0006587500475872705</v>
+        <v>0.002919865075792226</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1717,28 +1717,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>0.0004441168129133178</v>
+        <v>0.001968517765345517</v>
       </c>
       <c r="C49">
-        <v>9.1575E-05</v>
+        <v>0.0004059</v>
       </c>
       <c r="D49">
-        <v>1.681578938485915E-05</v>
+        <v>7.45348502464028E-05</v>
       </c>
       <c r="E49">
-        <v>2.043486315238058E-05</v>
+        <v>9.057615018893012E-05</v>
       </c>
       <c r="F49">
-        <v>7.094261130459867E-05</v>
+        <v>0.0003144483311879508</v>
       </c>
       <c r="G49">
-        <v>1.613013155591117E-05</v>
+        <v>7.149571824782247E-05</v>
       </c>
       <c r="H49">
-        <v>4.782331308933994E-06</v>
+        <v>2.119736039635608E-05</v>
       </c>
       <c r="I49">
-        <v>0.0006647975396200014</v>
+        <v>0.002946670175612979</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_SOx.xlsx
+++ b/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_SOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>0.5878537077095545</v>
+        <v>0.1306341572687898</v>
       </c>
       <c r="C2">
-        <v>0.02125439999999999</v>
+        <v>0.0047232</v>
       </c>
       <c r="D2">
-        <v>0.08122303098288519</v>
+        <v>0.01804956244064117</v>
       </c>
       <c r="E2">
-        <v>0.1200997318390372</v>
+        <v>0.02668882929756385</v>
       </c>
       <c r="F2">
-        <v>0.09582301898799581</v>
+        <v>0.02129400421955463</v>
       </c>
       <c r="G2">
-        <v>0.3284730994106158</v>
+        <v>0.07299402209124796</v>
       </c>
       <c r="H2">
-        <v>0.01971078997936045</v>
+        <v>0.00438017555096899</v>
       </c>
       <c r="I2">
-        <v>1.254437778909449</v>
+        <v>0.2787639508687664</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>0.589101804753524</v>
+        <v>0.1309115121674497</v>
       </c>
       <c r="C3">
-        <v>0.02444256</v>
+        <v>0.005431679999999999</v>
       </c>
       <c r="D3">
-        <v>0.08122303098288519</v>
+        <v>0.01804956244064117</v>
       </c>
       <c r="E3">
-        <v>0.1253214593102998</v>
+        <v>0.02784921318006662</v>
       </c>
       <c r="F3">
-        <v>0.09864134307587799</v>
+        <v>0.02192029846130621</v>
       </c>
       <c r="G3">
-        <v>0.2775031357089685</v>
+        <v>0.06166736349088188</v>
       </c>
       <c r="H3">
-        <v>0.01971078997936045</v>
+        <v>0.00438017555096899</v>
       </c>
       <c r="I3">
-        <v>1.215944123810916</v>
+        <v>0.2702098052913146</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>0.6015827751932171</v>
+        <v>0.1336850611540483</v>
       </c>
       <c r="C4">
-        <v>0.01487808</v>
+        <v>0.00330624</v>
       </c>
       <c r="D4">
-        <v>0.05414868732192347</v>
+        <v>0.0120330416270941</v>
       </c>
       <c r="E4">
-        <v>0.09921282195398731</v>
+        <v>0.02204729376755273</v>
       </c>
       <c r="F4">
-        <v>0.0713975435596832</v>
+        <v>0.0158661207910407</v>
       </c>
       <c r="G4">
-        <v>0.1868898669060401</v>
+        <v>0.04153108153467559</v>
       </c>
       <c r="H4">
-        <v>0.01314052665290697</v>
+        <v>0.002920117033979327</v>
       </c>
       <c r="I4">
-        <v>1.041250301587758</v>
+        <v>0.2313889559083908</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>0.6976862475788561</v>
+        <v>0.1550413883508568</v>
       </c>
       <c r="C5">
-        <v>0.03294431999999999</v>
+        <v>0.007320960000000004</v>
       </c>
       <c r="D5">
-        <v>0.1082973746438469</v>
+        <v>0.0240660832541882</v>
       </c>
       <c r="E5">
-        <v>0.09399109448272484</v>
+        <v>0.02088690988504996</v>
       </c>
       <c r="F5">
-        <v>0.1033385498890149</v>
+        <v>0.02296412219755888</v>
       </c>
       <c r="G5">
-        <v>0.2095431841067722</v>
+        <v>0.04656515202372716</v>
       </c>
       <c r="H5">
-        <v>0.03285131663226742</v>
+        <v>0.007300292584948317</v>
       </c>
       <c r="I5">
-        <v>1.278652087333482</v>
+        <v>0.2841449082963294</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>0.7326329648099965</v>
+        <v>0.1628073255133327</v>
       </c>
       <c r="C6">
-        <v>0.02019168</v>
+        <v>0.00448704</v>
       </c>
       <c r="D6">
-        <v>0.1022808538302999</v>
+        <v>0.02272907862895551</v>
       </c>
       <c r="E6">
-        <v>0.09921282195398731</v>
+        <v>0.02204729376755273</v>
       </c>
       <c r="F6">
-        <v>0.108035756702152</v>
+        <v>0.02400794593381159</v>
       </c>
       <c r="G6">
-        <v>0.192553196206223</v>
+        <v>0.04278959915693847</v>
       </c>
       <c r="H6">
-        <v>0.01971078997936045</v>
+        <v>0.00438017555096899</v>
       </c>
       <c r="I6">
-        <v>1.274618063482019</v>
+        <v>0.2832484585515599</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>0.7226481884582426</v>
+        <v>0.1605884863240539</v>
       </c>
       <c r="C7">
-        <v>0.04144608</v>
+        <v>0.009210240000000001</v>
       </c>
       <c r="D7">
-        <v>0.07821477057611168</v>
+        <v>0.01738106012802482</v>
       </c>
       <c r="E7">
-        <v>0.1253214593102998</v>
+        <v>0.02784921318006662</v>
       </c>
       <c r="F7">
-        <v>0.1033385498890149</v>
+        <v>0.02296412219755888</v>
       </c>
       <c r="G7">
-        <v>0.1868898669060401</v>
+        <v>0.04153108153467559</v>
       </c>
       <c r="H7">
-        <v>0.01971078997936045</v>
+        <v>0.00438017555096899</v>
       </c>
       <c r="I7">
-        <v>1.27756970511907</v>
+        <v>0.2839043789153488</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>0.8449616987672364</v>
+        <v>0.1877692663927192</v>
       </c>
       <c r="C8">
-        <v>0.04675968000000003</v>
+        <v>0.01039104</v>
       </c>
       <c r="D8">
-        <v>0.1082973746438469</v>
+        <v>0.0240660832541882</v>
       </c>
       <c r="E8">
-        <v>0.1305431867815622</v>
+        <v>0.0290095970625694</v>
       </c>
       <c r="F8">
-        <v>0.07703419173544758</v>
+        <v>0.01711870927454392</v>
       </c>
       <c r="G8">
-        <v>0.1415832325045756</v>
+        <v>0.03146294055657239</v>
       </c>
       <c r="H8">
-        <v>0.04599184328517441</v>
+        <v>0.01022040961892764</v>
       </c>
       <c r="I8">
-        <v>1.395171207717843</v>
+        <v>0.3100380461595207</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,25 +641,25 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>0.9785080824719545</v>
+        <v>0.2174462405493234</v>
       </c>
       <c r="C9">
-        <v>0.01275264</v>
+        <v>0.00283392</v>
       </c>
       <c r="D9">
-        <v>0.06618172894901758</v>
+        <v>0.01470705087755948</v>
       </c>
       <c r="E9">
-        <v>0.1148780043677748</v>
+        <v>0.02552844541506106</v>
       </c>
       <c r="F9">
-        <v>0.05730592312027197</v>
+        <v>0.01273464958228266</v>
       </c>
       <c r="G9">
-        <v>0.1189299153038437</v>
+        <v>0.02642887006752082</v>
       </c>
       <c r="I9">
-        <v>1.348556294212863</v>
+        <v>0.2996791764917474</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -667,28 +667,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>0.9348246859330286</v>
+        <v>0.2077388190962286</v>
       </c>
       <c r="C10">
-        <v>0.00743904</v>
+        <v>0.00165312</v>
       </c>
       <c r="D10">
-        <v>0.06317346854224412</v>
+        <v>0.01403854856494313</v>
       </c>
       <c r="E10">
-        <v>0.1879821889654497</v>
+        <v>0.04177381977009992</v>
       </c>
       <c r="F10">
-        <v>0.04603262676874306</v>
+        <v>0.01022947261527624</v>
       </c>
       <c r="G10">
-        <v>0.0622966223020134</v>
+        <v>0.01384369384489185</v>
       </c>
       <c r="H10">
-        <v>0.006570263326453485</v>
+        <v>0.001460058516989663</v>
       </c>
       <c r="I10">
-        <v>1.308318895837932</v>
+        <v>0.2907375324084294</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,28 +696,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>0.6752205007874075</v>
+        <v>0.1500490001749795</v>
       </c>
       <c r="C11">
-        <v>0.00637632</v>
+        <v>0.00141696</v>
       </c>
       <c r="D11">
-        <v>0.05114042691514994</v>
+        <v>0.01136453931447775</v>
       </c>
       <c r="E11">
-        <v>0.1566518241378747</v>
+        <v>0.03481151647508327</v>
       </c>
       <c r="F11">
-        <v>0.02066770997780302</v>
+        <v>0.004592824439511777</v>
       </c>
       <c r="G11">
-        <v>0.09627659810311148</v>
+        <v>0.02139479957846924</v>
       </c>
       <c r="H11">
-        <v>0.006570263326453485</v>
+        <v>0.001460058516989663</v>
       </c>
       <c r="I11">
-        <v>1.0129036432478</v>
+        <v>0.2250896984995112</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,28 +725,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>0.6065751633690944</v>
+        <v>0.1347944807486876</v>
       </c>
       <c r="C12">
-        <v>0.01912896</v>
+        <v>0.00425088</v>
       </c>
       <c r="D12">
-        <v>0.04512390610160293</v>
+        <v>0.01002753468924509</v>
       </c>
       <c r="E12">
-        <v>0.1357649142528247</v>
+        <v>0.03016998094507216</v>
       </c>
       <c r="F12">
-        <v>0.01972826861517559</v>
+        <v>0.004384059692261244</v>
       </c>
       <c r="G12">
-        <v>0.0509699637016473</v>
+        <v>0.01132665860036607</v>
       </c>
       <c r="H12">
-        <v>0.006570263326453485</v>
+        <v>0.001460058516989663</v>
       </c>
       <c r="I12">
-        <v>0.8838614393667984</v>
+        <v>0.1964136531926218</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>0.441826353565143</v>
+        <v>0.09818363412558731</v>
       </c>
       <c r="C13">
-        <v>0.00425088</v>
+        <v>0.0009446399999999998</v>
       </c>
       <c r="D13">
-        <v>0.03910738528805584</v>
+        <v>0.008690530064012408</v>
       </c>
       <c r="E13">
-        <v>0.1357649142528247</v>
+        <v>0.03016998094507216</v>
       </c>
       <c r="F13">
-        <v>0.01503106180203855</v>
+        <v>0.003340235956008565</v>
       </c>
       <c r="G13">
-        <v>0.04530663440146428</v>
+        <v>0.01006814097810318</v>
       </c>
       <c r="H13">
-        <v>0.006570263326453485</v>
+        <v>0.001460058516989663</v>
       </c>
       <c r="I13">
-        <v>0.6878574926359798</v>
+        <v>0.1528572205857733</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>0.2271536620024182</v>
+        <v>0.05047859155609288</v>
       </c>
       <c r="C14">
-        <v>0.00212544</v>
+        <v>0.0004723199999999999</v>
       </c>
       <c r="D14">
-        <v>0.01504130203386764</v>
+        <v>0.003342511563081699</v>
       </c>
       <c r="E14">
-        <v>0.08876936701146236</v>
+        <v>0.01972652600254719</v>
       </c>
       <c r="F14">
-        <v>0.01127329635152891</v>
+        <v>0.002505176967006425</v>
       </c>
       <c r="G14">
-        <v>0.01698998790054912</v>
+        <v>0.003775552866788684</v>
       </c>
       <c r="I14">
-        <v>0.3613530552998263</v>
+        <v>0.08030067895551689</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,25 +809,25 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>0.1847183625074609</v>
+        <v>0.04104852500165795</v>
       </c>
       <c r="C15">
-        <v>0.00743904</v>
+        <v>0.00165312</v>
       </c>
       <c r="D15">
-        <v>0.02406608325418819</v>
+        <v>0.005348018500930717</v>
       </c>
       <c r="E15">
-        <v>0.03133036482757495</v>
+        <v>0.006962303295016656</v>
       </c>
       <c r="F15">
-        <v>0.02818324087882229</v>
+        <v>0.006262942417516065</v>
       </c>
       <c r="G15">
-        <v>0.02831664650091515</v>
+        <v>0.006292588111314485</v>
       </c>
       <c r="I15">
-        <v>0.3040537379689615</v>
+        <v>0.06756749732643587</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -835,19 +835,19 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>0.1510197423202889</v>
+        <v>0.033559942737842</v>
       </c>
       <c r="C16">
-        <v>0.00637632</v>
+        <v>0.00141696</v>
       </c>
       <c r="F16">
-        <v>0.01221273771415632</v>
+        <v>0.002713941714256961</v>
       </c>
       <c r="G16">
-        <v>0.02831664650091515</v>
+        <v>0.006292588111314485</v>
       </c>
       <c r="I16">
-        <v>0.1979254465353604</v>
+        <v>0.04398343256341345</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -855,22 +855,22 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.0823744049019758</v>
+        <v>0.01830542331155017</v>
       </c>
       <c r="C17">
-        <v>0.00106272</v>
+        <v>0.00023616</v>
       </c>
       <c r="D17">
-        <v>0.009024781220320586</v>
+        <v>0.002005506937849017</v>
       </c>
       <c r="F17">
-        <v>0.008454972263646688</v>
+        <v>0.001878882725254819</v>
       </c>
       <c r="G17">
-        <v>0.01132665860036607</v>
+        <v>0.002517035244525795</v>
       </c>
       <c r="I17">
-        <v>0.1122435369863092</v>
+        <v>0.0249430082191798</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -878,22 +878,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.06490104628640518</v>
+        <v>0.01442245473031227</v>
       </c>
       <c r="C18">
-        <v>0.00106272</v>
+        <v>0.00023616</v>
       </c>
       <c r="D18">
-        <v>0.003008260406773524</v>
+        <v>0.0006685023126163396</v>
       </c>
       <c r="F18">
-        <v>0.004697206813137045</v>
+        <v>0.001043823736252677</v>
       </c>
       <c r="G18">
-        <v>0.02265331720073214</v>
+        <v>0.005034070489051589</v>
       </c>
       <c r="I18">
-        <v>0.0963225507070479</v>
+        <v>0.02140501126823287</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -901,25 +901,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.06240485219846657</v>
+        <v>0.01386774493299256</v>
       </c>
       <c r="C19">
-        <v>0.005313599999999998</v>
+        <v>0.0011808</v>
       </c>
       <c r="D19">
-        <v>0.006016520813547048</v>
+        <v>0.001337004625232679</v>
       </c>
       <c r="E19">
-        <v>0.02088690988504996</v>
+        <v>0.004641535530011102</v>
       </c>
       <c r="F19">
-        <v>0.01127329635152891</v>
+        <v>0.002505176967006425</v>
       </c>
       <c r="G19">
-        <v>0.02265331720073214</v>
+        <v>0.005034070489051589</v>
       </c>
       <c r="I19">
-        <v>0.1285484964493246</v>
+        <v>0.02856633254429436</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -927,19 +927,19 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.1148249280451783</v>
+        <v>0.02551665067670629</v>
       </c>
       <c r="C20">
-        <v>0.00212544</v>
+        <v>0.0004723199999999999</v>
       </c>
       <c r="F20">
-        <v>0.01033385498890151</v>
+        <v>0.002296412219755889</v>
       </c>
       <c r="G20">
-        <v>0.0509699637016473</v>
+        <v>0.01132665860036607</v>
       </c>
       <c r="I20">
-        <v>0.1782541867357272</v>
+        <v>0.03961204149682825</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -947,28 +947,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>0.3869100836304923</v>
+        <v>0.08598001858455377</v>
       </c>
       <c r="C21">
-        <v>0.00318816</v>
+        <v>0.00070848</v>
       </c>
       <c r="D21">
-        <v>0.06618172894901758</v>
+        <v>0.01470705087755948</v>
       </c>
       <c r="E21">
-        <v>0.03133036482757495</v>
+        <v>0.006962303295016656</v>
       </c>
       <c r="F21">
-        <v>0.0347593304172141</v>
+        <v>0.00772429564826981</v>
       </c>
       <c r="G21">
-        <v>0.0509699637016473</v>
+        <v>0.01132665860036607</v>
       </c>
       <c r="H21">
-        <v>0.01314052665290697</v>
+        <v>0.002920117033979327</v>
       </c>
       <c r="I21">
-        <v>0.5864801581788532</v>
+        <v>0.1303289240397451</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -976,28 +976,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>0.6627395303477142</v>
+        <v>0.147275451188381</v>
       </c>
       <c r="C22">
-        <v>0.00318816</v>
+        <v>0.00070848</v>
       </c>
       <c r="D22">
-        <v>0.08723955179643231</v>
+        <v>0.01938656706587385</v>
       </c>
       <c r="E22">
-        <v>0.1827604614941871</v>
+        <v>0.04061343588759714</v>
       </c>
       <c r="F22">
-        <v>0.06200312993340905</v>
+        <v>0.01377847331853534</v>
       </c>
       <c r="G22">
-        <v>0.1755632083056739</v>
+        <v>0.03901404629014979</v>
       </c>
       <c r="H22">
-        <v>0.006570263326453485</v>
+        <v>0.001460058516989663</v>
       </c>
       <c r="I22">
-        <v>1.18006430520387</v>
+        <v>0.2622365122675268</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1005,28 +1005,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>0.85619457216296</v>
+        <v>0.1902654604806579</v>
       </c>
       <c r="C23">
-        <v>0.00318816</v>
+        <v>0.00070848</v>
       </c>
       <c r="D23">
-        <v>0.04211564569482933</v>
+        <v>0.009359032376628754</v>
       </c>
       <c r="E23">
-        <v>0.1670952790803997</v>
+        <v>0.03713228424008882</v>
       </c>
       <c r="F23">
-        <v>0.03663821314246896</v>
+        <v>0.008141825142770885</v>
       </c>
       <c r="G23">
-        <v>0.09061326880292857</v>
+        <v>0.02013628195620636</v>
       </c>
       <c r="H23">
-        <v>0.01314052665290697</v>
+        <v>0.002920117033979327</v>
       </c>
       <c r="I23">
-        <v>1.208985665536494</v>
+        <v>0.2686634812303321</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1034,28 +1034,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>0.8299845342396043</v>
+        <v>0.184441007608801</v>
       </c>
       <c r="C24">
-        <v>0.01700352</v>
+        <v>0.003778559999999999</v>
       </c>
       <c r="D24">
-        <v>0.07219824976256468</v>
+        <v>0.01604405550279214</v>
       </c>
       <c r="E24">
-        <v>0.1462083691953497</v>
+        <v>0.0324907487100777</v>
       </c>
       <c r="F24">
-        <v>0.0507298335818801</v>
+        <v>0.01127329635152891</v>
       </c>
       <c r="G24">
-        <v>0.1642365497053079</v>
+        <v>0.03649701104562398</v>
       </c>
       <c r="H24">
-        <v>0.01971078997936045</v>
+        <v>0.00438017555096899</v>
       </c>
       <c r="I24">
-        <v>1.300071846464067</v>
+        <v>0.2889048547697927</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1063,28 +1063,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>0.7176558002823646</v>
+        <v>0.1594790667294144</v>
       </c>
       <c r="C25">
-        <v>0.02337984000000001</v>
+        <v>0.005195519999999999</v>
       </c>
       <c r="D25">
-        <v>0.05715694772869698</v>
+        <v>0.01270154393971044</v>
       </c>
       <c r="E25">
-        <v>0.2401994636780745</v>
+        <v>0.0533776585951277</v>
       </c>
       <c r="F25">
-        <v>0.09112581217485874</v>
+        <v>0.02025018048330194</v>
       </c>
       <c r="G25">
-        <v>0.1642365497053079</v>
+        <v>0.03649701104562398</v>
       </c>
       <c r="H25">
-        <v>0.05913236993808137</v>
+        <v>0.01314052665290697</v>
       </c>
       <c r="I25">
-        <v>1.352886783507384</v>
+        <v>0.3006415074460854</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1092,28 +1092,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>0.6053270663251256</v>
+        <v>0.1345171258500279</v>
       </c>
       <c r="C26">
-        <v>0.01806624</v>
+        <v>0.004014719999999999</v>
       </c>
       <c r="D26">
-        <v>0.07219824976256468</v>
+        <v>0.01604405550279214</v>
       </c>
       <c r="E26">
-        <v>0.1200997318390372</v>
+        <v>0.02668882929756385</v>
       </c>
       <c r="F26">
-        <v>0.1023991085263875</v>
+        <v>0.02275535745030838</v>
       </c>
       <c r="G26">
-        <v>0.3907697217126293</v>
+        <v>0.08683771593613977</v>
       </c>
       <c r="H26">
-        <v>0.01971078997936045</v>
+        <v>0.00438017555096899</v>
       </c>
       <c r="I26">
-        <v>1.328570908145105</v>
+        <v>0.295237979587801</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1121,28 +1121,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>0.5716284461379535</v>
+        <v>0.127028543586212</v>
       </c>
       <c r="C27">
-        <v>0.02763072</v>
+        <v>0.006140159999999997</v>
       </c>
       <c r="D27">
-        <v>0.07219824976256468</v>
+        <v>0.01604405550279214</v>
       </c>
       <c r="E27">
-        <v>0.1044345494252497</v>
+        <v>0.02320767765005553</v>
       </c>
       <c r="F27">
-        <v>0.1117935221526617</v>
+        <v>0.02484300492281371</v>
       </c>
       <c r="G27">
-        <v>0.356789745911531</v>
+        <v>0.07928661020256238</v>
       </c>
       <c r="H27">
-        <v>0.01314052665290697</v>
+        <v>0.002920117033979327</v>
       </c>
       <c r="I27">
-        <v>1.257615760042868</v>
+        <v>0.279470168898415</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1150,28 +1150,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>0.5653879609181059</v>
+        <v>0.1256417690929125</v>
       </c>
       <c r="C28">
-        <v>0.01168992000000001</v>
+        <v>0.002597759999999999</v>
       </c>
       <c r="D28">
-        <v>0.04211564569482933</v>
+        <v>0.009359032376628754</v>
       </c>
       <c r="E28">
-        <v>0.1253214593102998</v>
+        <v>0.02784921318006662</v>
       </c>
       <c r="F28">
-        <v>0.06012424720815421</v>
+        <v>0.01336094382403426</v>
       </c>
       <c r="G28">
-        <v>0.192553196206223</v>
+        <v>0.04278959915693847</v>
       </c>
       <c r="H28">
-        <v>0.01971078997936045</v>
+        <v>0.00438017555096899</v>
       </c>
       <c r="I28">
-        <v>1.016903219316973</v>
+        <v>0.2259784931815496</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1179,28 +1179,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>0.6989343446228242</v>
+        <v>0.1553187432495165</v>
       </c>
       <c r="C29">
-        <v>0.03294431999999999</v>
+        <v>0.007320960000000004</v>
       </c>
       <c r="D29">
-        <v>0.1353717183048086</v>
+        <v>0.03008260406773529</v>
       </c>
       <c r="E29">
-        <v>0.1566518241378747</v>
+        <v>0.03481151647508327</v>
       </c>
       <c r="F29">
-        <v>0.09864134307587799</v>
+        <v>0.02192029846130621</v>
       </c>
       <c r="G29">
-        <v>0.2888297943093346</v>
+        <v>0.06418439873540767</v>
       </c>
       <c r="H29">
-        <v>0.05256210661162788</v>
+        <v>0.01168046813591731</v>
       </c>
       <c r="I29">
-        <v>1.463935451062348</v>
+        <v>0.3253189891249663</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1208,28 +1208,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>0.6228004249406961</v>
+        <v>0.1384000944312658</v>
       </c>
       <c r="C30">
-        <v>0.01594079999999999</v>
+        <v>0.003542400000000002</v>
       </c>
       <c r="D30">
-        <v>0.1082973746438469</v>
+        <v>0.0240660832541882</v>
       </c>
       <c r="E30">
-        <v>0.08354763954019984</v>
+        <v>0.01856614212004441</v>
       </c>
       <c r="F30">
-        <v>0.1099146394274069</v>
+        <v>0.02442547542831263</v>
       </c>
       <c r="G30">
-        <v>0.1415832325045756</v>
+        <v>0.03146294055657239</v>
       </c>
       <c r="H30">
-        <v>0.02628105330581394</v>
+        <v>0.005840234067958653</v>
       </c>
       <c r="I30">
-        <v>1.108365164362539</v>
+        <v>0.2463033698583421</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1237,28 +1237,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>0.7438658382057204</v>
+        <v>0.1653035196012713</v>
       </c>
       <c r="C31">
-        <v>0.02763072</v>
+        <v>0.006140159999999997</v>
       </c>
       <c r="D31">
-        <v>0.1052891142370734</v>
+        <v>0.02339758094157188</v>
       </c>
       <c r="E31">
-        <v>0.1044345494252497</v>
+        <v>0.02320767765005553</v>
       </c>
       <c r="F31">
-        <v>0.09394413626274085</v>
+        <v>0.02087647472505353</v>
       </c>
       <c r="G31">
-        <v>0.1982165255064061</v>
+        <v>0.04404811677920138</v>
       </c>
       <c r="H31">
-        <v>0.03285131663226742</v>
+        <v>0.007300292584948317</v>
       </c>
       <c r="I31">
-        <v>1.306232200269458</v>
+        <v>0.2902738222821019</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1266,28 +1266,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>0.8636831544267763</v>
+        <v>0.1919295898726171</v>
       </c>
       <c r="C32">
-        <v>0.03932064</v>
+        <v>0.00873792</v>
       </c>
       <c r="D32">
-        <v>0.09927259342352641</v>
+        <v>0.0220605763163392</v>
       </c>
       <c r="E32">
-        <v>0.1253214593102998</v>
+        <v>0.02784921318006662</v>
       </c>
       <c r="F32">
-        <v>0.07703419173544758</v>
+        <v>0.01711870927454392</v>
       </c>
       <c r="G32">
-        <v>0.2548498185082363</v>
+        <v>0.05663329300183031</v>
       </c>
       <c r="H32">
-        <v>0.03285131663226742</v>
+        <v>0.007300292584948317</v>
       </c>
       <c r="I32">
-        <v>1.492333174036554</v>
+        <v>0.3316295942303454</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1295,25 +1295,25 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>0.9934852469995865</v>
+        <v>0.2207744993332414</v>
       </c>
       <c r="C33">
-        <v>0.00956448</v>
+        <v>0.00212544</v>
       </c>
       <c r="D33">
-        <v>0.04813216650837639</v>
+        <v>0.01069603700186143</v>
       </c>
       <c r="E33">
-        <v>0.1044345494252497</v>
+        <v>0.02320767765005553</v>
       </c>
       <c r="F33">
-        <v>0.04979039221925267</v>
+        <v>0.01106453160427837</v>
       </c>
       <c r="G33">
-        <v>0.1076032567034776</v>
+        <v>0.02391183482299503</v>
       </c>
       <c r="I33">
-        <v>1.313010091855943</v>
+        <v>0.2917800204124318</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1321,28 +1321,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>1.030928158318666</v>
+        <v>0.2290951462930368</v>
       </c>
       <c r="C34">
-        <v>0.00318816</v>
+        <v>0.00070848</v>
       </c>
       <c r="D34">
-        <v>0.04211564569482933</v>
+        <v>0.009359032376628754</v>
       </c>
       <c r="E34">
-        <v>0.1827604614941871</v>
+        <v>0.04061343588759714</v>
       </c>
       <c r="F34">
-        <v>0.0507298335818801</v>
+        <v>0.01127329635152891</v>
       </c>
       <c r="G34">
-        <v>0.03964330510128119</v>
+        <v>0.008809623355840271</v>
       </c>
       <c r="H34">
-        <v>0.01314052665290697</v>
+        <v>0.002920117033979327</v>
       </c>
       <c r="I34">
-        <v>1.362506090843751</v>
+        <v>0.3027791312986113</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1350,28 +1350,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>0.7214000914142733</v>
+        <v>0.160311131425394</v>
       </c>
       <c r="C35">
-        <v>0.00318816</v>
+        <v>0.00070848</v>
       </c>
       <c r="D35">
-        <v>0.03910738528805584</v>
+        <v>0.008690530064012408</v>
       </c>
       <c r="E35">
-        <v>0.1409866417240872</v>
+        <v>0.03133036482757495</v>
       </c>
       <c r="F35">
-        <v>0.02630435815356747</v>
+        <v>0.005845412923014994</v>
       </c>
       <c r="G35">
-        <v>0.1189299153038437</v>
+        <v>0.02642887006752082</v>
       </c>
       <c r="H35">
-        <v>0.01314052665290697</v>
+        <v>0.002920117033979327</v>
       </c>
       <c r="I35">
-        <v>1.063057078536735</v>
+        <v>0.2362349063414965</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1379,28 +1379,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>0.6864533741831311</v>
+        <v>0.1525451942629182</v>
       </c>
       <c r="C36">
-        <v>0.00637632</v>
+        <v>0.00141696</v>
       </c>
       <c r="D36">
-        <v>0.02707434366096174</v>
+        <v>0.00601652081354705</v>
       </c>
       <c r="E36">
-        <v>0.1723170065516622</v>
+        <v>0.03829266812259158</v>
       </c>
       <c r="F36">
-        <v>0.02254659270305782</v>
+        <v>0.005010353934012849</v>
       </c>
       <c r="G36">
-        <v>0.0509699637016473</v>
+        <v>0.01132665860036607</v>
       </c>
       <c r="H36">
-        <v>0.01314052665290697</v>
+        <v>0.002920117033979327</v>
       </c>
       <c r="I36">
-        <v>0.9788781274533671</v>
+        <v>0.217528472767415</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1408,28 +1408,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>0.4842616530600999</v>
+        <v>0.1076137006800222</v>
       </c>
       <c r="C37">
-        <v>0.00212544</v>
+        <v>0.0004723199999999999</v>
       </c>
       <c r="D37">
-        <v>0.03309086447450879</v>
+        <v>0.007353525438779738</v>
       </c>
       <c r="E37">
-        <v>0.1253214593102998</v>
+        <v>0.02784921318006662</v>
       </c>
       <c r="F37">
-        <v>0.03006212360407711</v>
+        <v>0.006680471912017131</v>
       </c>
       <c r="G37">
-        <v>0.05663329300183031</v>
+        <v>0.01258517622262897</v>
       </c>
       <c r="H37">
-        <v>0.01314052665290697</v>
+        <v>0.002920117033979327</v>
       </c>
       <c r="I37">
-        <v>0.7446353601037229</v>
+        <v>0.165474524467494</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1437,25 +1437,25 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>0.2496194087938663</v>
+        <v>0.05547097973197024</v>
       </c>
       <c r="C38">
-        <v>0.00212544</v>
+        <v>0.0004723199999999999</v>
       </c>
       <c r="D38">
-        <v>0.01504130203386764</v>
+        <v>0.003342511563081699</v>
       </c>
       <c r="E38">
-        <v>0.08876936701146236</v>
+        <v>0.01972652600254719</v>
       </c>
       <c r="F38">
-        <v>0.01315217907678374</v>
+        <v>0.002922706461507497</v>
       </c>
       <c r="G38">
-        <v>0.02831664650091515</v>
+        <v>0.006292588111314485</v>
       </c>
       <c r="I38">
-        <v>0.3970243434168952</v>
+        <v>0.08822763187042111</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1463,25 +1463,25 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>0.2159207886066941</v>
+        <v>0.04798239746815427</v>
       </c>
       <c r="C39">
-        <v>0.01168992000000001</v>
+        <v>0.002597759999999999</v>
       </c>
       <c r="D39">
-        <v>0.02707434366096174</v>
+        <v>0.00601652081354705</v>
       </c>
       <c r="E39">
-        <v>0.02088690988504996</v>
+        <v>0.004641535530011102</v>
       </c>
       <c r="F39">
-        <v>0.02066770997780302</v>
+        <v>0.004592824439511777</v>
       </c>
       <c r="G39">
-        <v>0.02265331720073214</v>
+        <v>0.005034070489051589</v>
       </c>
       <c r="I39">
-        <v>0.3188929893312409</v>
+        <v>0.07086510874027578</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,19 +1489,19 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>0.1659969068479209</v>
+        <v>0.03688820152176019</v>
       </c>
       <c r="C40">
-        <v>0.01168992000000001</v>
+        <v>0.002597759999999999</v>
       </c>
       <c r="F40">
-        <v>0.01597050316466596</v>
+        <v>0.003549000703259102</v>
       </c>
       <c r="G40">
-        <v>0.03964330510128119</v>
+        <v>0.008809623355840271</v>
       </c>
       <c r="I40">
-        <v>0.2333006351138681</v>
+        <v>0.05184458558085956</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1509,22 +1509,22 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.1023439576054851</v>
+        <v>0.02274310169010779</v>
       </c>
       <c r="C41">
-        <v>0.00106272</v>
+        <v>0.00023616</v>
       </c>
       <c r="D41">
-        <v>0.009024781220320586</v>
+        <v>0.002005506937849017</v>
       </c>
       <c r="F41">
-        <v>0.008454972263646688</v>
+        <v>0.001878882725254819</v>
       </c>
       <c r="G41">
-        <v>0.01698998790054912</v>
+        <v>0.003775552866788684</v>
       </c>
       <c r="I41">
-        <v>0.1378764189900015</v>
+        <v>0.03063920422000031</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1532,22 +1532,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.08736679307785303</v>
+        <v>0.01941484290618956</v>
       </c>
       <c r="C42">
-        <v>0.00106272</v>
+        <v>0.00023616</v>
       </c>
       <c r="D42">
-        <v>0.006016520813547048</v>
+        <v>0.001337004625232679</v>
       </c>
       <c r="F42">
-        <v>0.004697206813137045</v>
+        <v>0.001043823736252677</v>
       </c>
       <c r="G42">
-        <v>0.02265331720073214</v>
+        <v>0.005034070489051589</v>
       </c>
       <c r="I42">
-        <v>0.1217965579052693</v>
+        <v>0.02706590175672651</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1555,25 +1555,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.06365294924243585</v>
+        <v>0.0141450998316524</v>
       </c>
       <c r="C43">
-        <v>0.00318816</v>
+        <v>0.00070848</v>
       </c>
       <c r="D43">
-        <v>0.006016520813547048</v>
+        <v>0.001337004625232679</v>
       </c>
       <c r="E43">
-        <v>0.01044345494252498</v>
+        <v>0.002320767765005551</v>
       </c>
       <c r="F43">
-        <v>0.008454972263646688</v>
+        <v>0.001878882725254819</v>
       </c>
       <c r="G43">
-        <v>0.03397997580109823</v>
+        <v>0.007551105733577368</v>
       </c>
       <c r="I43">
-        <v>0.1257360330632528</v>
+        <v>0.02794134068072282</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1581,19 +1581,19 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.1135768310012091</v>
+        <v>0.02523929577804644</v>
       </c>
       <c r="C44">
-        <v>0.00212544</v>
+        <v>0.0004723199999999999</v>
       </c>
       <c r="F44">
-        <v>0.01127329635152891</v>
+        <v>0.002505176967006425</v>
       </c>
       <c r="G44">
-        <v>0.0622966223020134</v>
+        <v>0.01384369384489185</v>
       </c>
       <c r="I44">
-        <v>0.1892721896547514</v>
+        <v>0.04206048658994471</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1601,28 +1601,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>0.3894062777184306</v>
+        <v>0.08653472838187354</v>
       </c>
       <c r="C45">
-        <v>0.00318816</v>
+        <v>0.00070848</v>
       </c>
       <c r="D45">
-        <v>0.03609912488128234</v>
+        <v>0.008022027751396068</v>
       </c>
       <c r="E45">
-        <v>0.02610863735631243</v>
+        <v>0.005801919412513882</v>
       </c>
       <c r="F45">
-        <v>0.04697206813137043</v>
+        <v>0.01043823736252676</v>
       </c>
       <c r="G45">
-        <v>0.0509699637016473</v>
+        <v>0.01132665860036607</v>
       </c>
       <c r="H45">
-        <v>0.02628105330581394</v>
+        <v>0.005840234067958653</v>
       </c>
       <c r="I45">
-        <v>0.5790252850948571</v>
+        <v>0.128672285576635</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1630,28 +1630,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>0.6839571800951925</v>
+        <v>0.1519904844655985</v>
       </c>
       <c r="C46">
-        <v>0.00106272</v>
+        <v>0.00023616</v>
       </c>
       <c r="D46">
-        <v>0.05715694772869698</v>
+        <v>0.01270154393971044</v>
       </c>
       <c r="E46">
-        <v>0.1827604614941871</v>
+        <v>0.04061343588759714</v>
       </c>
       <c r="F46">
-        <v>0.06294257129603643</v>
+        <v>0.01398723806578587</v>
       </c>
       <c r="G46">
-        <v>0.2321965013075044</v>
+        <v>0.05159922251277872</v>
       </c>
       <c r="H46">
-        <v>0.006570263326453485</v>
+        <v>0.001460058516989663</v>
       </c>
       <c r="I46">
-        <v>1.226646645248071</v>
+        <v>0.2725881433884603</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1659,28 +1659,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>0.8711717366905926</v>
+        <v>0.193593719264576</v>
       </c>
       <c r="C47">
-        <v>0.00318816</v>
+        <v>0.00070848</v>
       </c>
       <c r="D47">
-        <v>0.05114042691514994</v>
+        <v>0.01136453931447775</v>
       </c>
       <c r="E47">
-        <v>0.1566518241378747</v>
+        <v>0.03481151647508327</v>
       </c>
       <c r="F47">
-        <v>0.03288044769195932</v>
+        <v>0.007306766153768738</v>
       </c>
       <c r="G47">
-        <v>0.1019399274032946</v>
+        <v>0.02265331720073214</v>
       </c>
       <c r="H47">
-        <v>0.006570263326453485</v>
+        <v>0.001460058516989663</v>
       </c>
       <c r="I47">
-        <v>1.223542786165325</v>
+        <v>0.2718983969256276</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1688,28 +1688,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>0.7962859140524327</v>
+        <v>0.176952425344985</v>
       </c>
       <c r="C48">
-        <v>0.01806624</v>
+        <v>0.004014719999999999</v>
       </c>
       <c r="D48">
-        <v>0.08122303098288519</v>
+        <v>0.01804956244064117</v>
       </c>
       <c r="E48">
-        <v>0.1618735516091371</v>
+        <v>0.03597190035758604</v>
       </c>
       <c r="F48">
-        <v>0.05260871630713494</v>
+        <v>0.01169082584602999</v>
       </c>
       <c r="G48">
-        <v>0.1472465618047589</v>
+        <v>0.03272145817883529</v>
       </c>
       <c r="H48">
-        <v>0.02628105330581394</v>
+        <v>0.005840234067958653</v>
       </c>
       <c r="I48">
-        <v>1.283585068062163</v>
+        <v>0.2852411262360361</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1717,28 +1717,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>0.7176558002823646</v>
+        <v>0.1594790667294144</v>
       </c>
       <c r="C49">
-        <v>0.02337984000000001</v>
+        <v>0.005195519999999999</v>
       </c>
       <c r="D49">
-        <v>0.05715694772869698</v>
+        <v>0.01270154393971044</v>
       </c>
       <c r="E49">
-        <v>0.2401994636780745</v>
+        <v>0.0533776585951277</v>
       </c>
       <c r="F49">
-        <v>0.09112581217485874</v>
+        <v>0.02025018048330194</v>
       </c>
       <c r="G49">
-        <v>0.1642365497053079</v>
+        <v>0.03649701104562398</v>
       </c>
       <c r="H49">
-        <v>0.05913236993808137</v>
+        <v>0.01314052665290697</v>
       </c>
       <c r="I49">
-        <v>1.352886783507384</v>
+        <v>0.3006415074460854</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_SOx.xlsx
+++ b/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_SOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>0.1306341572687898</v>
+        <v>0.5878537077095545</v>
       </c>
       <c r="C2">
-        <v>0.0047232</v>
+        <v>0.02125439999999999</v>
       </c>
       <c r="D2">
-        <v>0.01804956244064117</v>
+        <v>0.08122303098288519</v>
       </c>
       <c r="E2">
-        <v>0.02668882929756385</v>
+        <v>0.1200997318390372</v>
       </c>
       <c r="F2">
-        <v>0.02129400421955463</v>
+        <v>0.09582301898799581</v>
       </c>
       <c r="G2">
-        <v>0.07299402209124796</v>
+        <v>0.3284730994106158</v>
       </c>
       <c r="H2">
-        <v>0.00438017555096899</v>
+        <v>0.01971078997936045</v>
       </c>
       <c r="I2">
-        <v>0.2787639508687664</v>
+        <v>1.254437778909449</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>0.1309115121674497</v>
+        <v>0.589101804753524</v>
       </c>
       <c r="C3">
-        <v>0.005431679999999999</v>
+        <v>0.02444256</v>
       </c>
       <c r="D3">
-        <v>0.01804956244064117</v>
+        <v>0.08122303098288519</v>
       </c>
       <c r="E3">
-        <v>0.02784921318006662</v>
+        <v>0.1253214593102998</v>
       </c>
       <c r="F3">
-        <v>0.02192029846130621</v>
+        <v>0.09864134307587799</v>
       </c>
       <c r="G3">
-        <v>0.06166736349088188</v>
+        <v>0.2775031357089685</v>
       </c>
       <c r="H3">
-        <v>0.00438017555096899</v>
+        <v>0.01971078997936045</v>
       </c>
       <c r="I3">
-        <v>0.2702098052913146</v>
+        <v>1.215944123810916</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>0.1336850611540483</v>
+        <v>0.6015827751932171</v>
       </c>
       <c r="C4">
-        <v>0.00330624</v>
+        <v>0.01487808</v>
       </c>
       <c r="D4">
-        <v>0.0120330416270941</v>
+        <v>0.05414868732192347</v>
       </c>
       <c r="E4">
-        <v>0.02204729376755273</v>
+        <v>0.09921282195398731</v>
       </c>
       <c r="F4">
-        <v>0.0158661207910407</v>
+        <v>0.0713975435596832</v>
       </c>
       <c r="G4">
-        <v>0.04153108153467559</v>
+        <v>0.1868898669060401</v>
       </c>
       <c r="H4">
-        <v>0.002920117033979327</v>
+        <v>0.01314052665290697</v>
       </c>
       <c r="I4">
-        <v>0.2313889559083908</v>
+        <v>1.041250301587758</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>0.1550413883508568</v>
+        <v>0.6976862475788561</v>
       </c>
       <c r="C5">
-        <v>0.007320960000000004</v>
+        <v>0.03294431999999999</v>
       </c>
       <c r="D5">
-        <v>0.0240660832541882</v>
+        <v>0.1082973746438469</v>
       </c>
       <c r="E5">
-        <v>0.02088690988504996</v>
+        <v>0.09399109448272484</v>
       </c>
       <c r="F5">
-        <v>0.02296412219755888</v>
+        <v>0.1033385498890149</v>
       </c>
       <c r="G5">
-        <v>0.04656515202372716</v>
+        <v>0.2095431841067722</v>
       </c>
       <c r="H5">
-        <v>0.007300292584948317</v>
+        <v>0.03285131663226742</v>
       </c>
       <c r="I5">
-        <v>0.2841449082963294</v>
+        <v>1.278652087333482</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>0.1628073255133327</v>
+        <v>0.7326329648099965</v>
       </c>
       <c r="C6">
-        <v>0.00448704</v>
+        <v>0.02019168</v>
       </c>
       <c r="D6">
-        <v>0.02272907862895551</v>
+        <v>0.1022808538302999</v>
       </c>
       <c r="E6">
-        <v>0.02204729376755273</v>
+        <v>0.09921282195398731</v>
       </c>
       <c r="F6">
-        <v>0.02400794593381159</v>
+        <v>0.108035756702152</v>
       </c>
       <c r="G6">
-        <v>0.04278959915693847</v>
+        <v>0.192553196206223</v>
       </c>
       <c r="H6">
-        <v>0.00438017555096899</v>
+        <v>0.01971078997936045</v>
       </c>
       <c r="I6">
-        <v>0.2832484585515599</v>
+        <v>1.274618063482019</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>0.1605884863240539</v>
+        <v>0.7226481884582426</v>
       </c>
       <c r="C7">
-        <v>0.009210240000000001</v>
+        <v>0.04144608</v>
       </c>
       <c r="D7">
-        <v>0.01738106012802482</v>
+        <v>0.07821477057611168</v>
       </c>
       <c r="E7">
-        <v>0.02784921318006662</v>
+        <v>0.1253214593102998</v>
       </c>
       <c r="F7">
-        <v>0.02296412219755888</v>
+        <v>0.1033385498890149</v>
       </c>
       <c r="G7">
-        <v>0.04153108153467559</v>
+        <v>0.1868898669060401</v>
       </c>
       <c r="H7">
-        <v>0.00438017555096899</v>
+        <v>0.01971078997936045</v>
       </c>
       <c r="I7">
-        <v>0.2839043789153488</v>
+        <v>1.27756970511907</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>0.1877692663927192</v>
+        <v>0.8449616987672364</v>
       </c>
       <c r="C8">
-        <v>0.01039104</v>
+        <v>0.04675968000000003</v>
       </c>
       <c r="D8">
-        <v>0.0240660832541882</v>
+        <v>0.1082973746438469</v>
       </c>
       <c r="E8">
-        <v>0.0290095970625694</v>
+        <v>0.1305431867815622</v>
       </c>
       <c r="F8">
-        <v>0.01711870927454392</v>
+        <v>0.07703419173544758</v>
       </c>
       <c r="G8">
-        <v>0.03146294055657239</v>
+        <v>0.1415832325045756</v>
       </c>
       <c r="H8">
-        <v>0.01022040961892764</v>
+        <v>0.04599184328517441</v>
       </c>
       <c r="I8">
-        <v>0.3100380461595207</v>
+        <v>1.395171207717843</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,25 +641,25 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>0.2174462405493234</v>
+        <v>0.9785080824719545</v>
       </c>
       <c r="C9">
-        <v>0.00283392</v>
+        <v>0.01275264</v>
       </c>
       <c r="D9">
-        <v>0.01470705087755948</v>
+        <v>0.06618172894901758</v>
       </c>
       <c r="E9">
-        <v>0.02552844541506106</v>
+        <v>0.1148780043677748</v>
       </c>
       <c r="F9">
-        <v>0.01273464958228266</v>
+        <v>0.05730592312027197</v>
       </c>
       <c r="G9">
-        <v>0.02642887006752082</v>
+        <v>0.1189299153038437</v>
       </c>
       <c r="I9">
-        <v>0.2996791764917474</v>
+        <v>1.348556294212863</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -667,28 +667,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>0.2077388190962286</v>
+        <v>0.9348246859330286</v>
       </c>
       <c r="C10">
-        <v>0.00165312</v>
+        <v>0.00743904</v>
       </c>
       <c r="D10">
-        <v>0.01403854856494313</v>
+        <v>0.06317346854224412</v>
       </c>
       <c r="E10">
-        <v>0.04177381977009992</v>
+        <v>0.1879821889654497</v>
       </c>
       <c r="F10">
-        <v>0.01022947261527624</v>
+        <v>0.04603262676874306</v>
       </c>
       <c r="G10">
-        <v>0.01384369384489185</v>
+        <v>0.0622966223020134</v>
       </c>
       <c r="H10">
-        <v>0.001460058516989663</v>
+        <v>0.006570263326453485</v>
       </c>
       <c r="I10">
-        <v>0.2907375324084294</v>
+        <v>1.308318895837932</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,28 +696,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>0.1500490001749795</v>
+        <v>0.6752205007874075</v>
       </c>
       <c r="C11">
-        <v>0.00141696</v>
+        <v>0.00637632</v>
       </c>
       <c r="D11">
-        <v>0.01136453931447775</v>
+        <v>0.05114042691514994</v>
       </c>
       <c r="E11">
-        <v>0.03481151647508327</v>
+        <v>0.1566518241378747</v>
       </c>
       <c r="F11">
-        <v>0.004592824439511777</v>
+        <v>0.02066770997780302</v>
       </c>
       <c r="G11">
-        <v>0.02139479957846924</v>
+        <v>0.09627659810311148</v>
       </c>
       <c r="H11">
-        <v>0.001460058516989663</v>
+        <v>0.006570263326453485</v>
       </c>
       <c r="I11">
-        <v>0.2250896984995112</v>
+        <v>1.0129036432478</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,28 +725,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>0.1347944807486876</v>
+        <v>0.6065751633690944</v>
       </c>
       <c r="C12">
-        <v>0.00425088</v>
+        <v>0.01912896</v>
       </c>
       <c r="D12">
-        <v>0.01002753468924509</v>
+        <v>0.04512390610160293</v>
       </c>
       <c r="E12">
-        <v>0.03016998094507216</v>
+        <v>0.1357649142528247</v>
       </c>
       <c r="F12">
-        <v>0.004384059692261244</v>
+        <v>0.01972826861517559</v>
       </c>
       <c r="G12">
-        <v>0.01132665860036607</v>
+        <v>0.0509699637016473</v>
       </c>
       <c r="H12">
-        <v>0.001460058516989663</v>
+        <v>0.006570263326453485</v>
       </c>
       <c r="I12">
-        <v>0.1964136531926218</v>
+        <v>0.8838614393667984</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>0.09818363412558731</v>
+        <v>0.441826353565143</v>
       </c>
       <c r="C13">
-        <v>0.0009446399999999998</v>
+        <v>0.00425088</v>
       </c>
       <c r="D13">
-        <v>0.008690530064012408</v>
+        <v>0.03910738528805584</v>
       </c>
       <c r="E13">
-        <v>0.03016998094507216</v>
+        <v>0.1357649142528247</v>
       </c>
       <c r="F13">
-        <v>0.003340235956008565</v>
+        <v>0.01503106180203855</v>
       </c>
       <c r="G13">
-        <v>0.01006814097810318</v>
+        <v>0.04530663440146428</v>
       </c>
       <c r="H13">
-        <v>0.001460058516989663</v>
+        <v>0.006570263326453485</v>
       </c>
       <c r="I13">
-        <v>0.1528572205857733</v>
+        <v>0.6878574926359798</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>0.05047859155609288</v>
+        <v>0.2271536620024182</v>
       </c>
       <c r="C14">
-        <v>0.0004723199999999999</v>
+        <v>0.00212544</v>
       </c>
       <c r="D14">
-        <v>0.003342511563081699</v>
+        <v>0.01504130203386764</v>
       </c>
       <c r="E14">
-        <v>0.01972652600254719</v>
+        <v>0.08876936701146236</v>
       </c>
       <c r="F14">
-        <v>0.002505176967006425</v>
+        <v>0.01127329635152891</v>
       </c>
       <c r="G14">
-        <v>0.003775552866788684</v>
+        <v>0.01698998790054912</v>
       </c>
       <c r="I14">
-        <v>0.08030067895551689</v>
+        <v>0.3613530552998263</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,25 +809,25 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>0.04104852500165795</v>
+        <v>0.1847183625074609</v>
       </c>
       <c r="C15">
-        <v>0.00165312</v>
+        <v>0.00743904</v>
       </c>
       <c r="D15">
-        <v>0.005348018500930717</v>
+        <v>0.02406608325418819</v>
       </c>
       <c r="E15">
-        <v>0.006962303295016656</v>
+        <v>0.03133036482757495</v>
       </c>
       <c r="F15">
-        <v>0.006262942417516065</v>
+        <v>0.02818324087882229</v>
       </c>
       <c r="G15">
-        <v>0.006292588111314485</v>
+        <v>0.02831664650091515</v>
       </c>
       <c r="I15">
-        <v>0.06756749732643587</v>
+        <v>0.3040537379689615</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -835,19 +835,19 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>0.033559942737842</v>
+        <v>0.1510197423202889</v>
       </c>
       <c r="C16">
-        <v>0.00141696</v>
+        <v>0.00637632</v>
       </c>
       <c r="F16">
-        <v>0.002713941714256961</v>
+        <v>0.01221273771415632</v>
       </c>
       <c r="G16">
-        <v>0.006292588111314485</v>
+        <v>0.02831664650091515</v>
       </c>
       <c r="I16">
-        <v>0.04398343256341345</v>
+        <v>0.1979254465353604</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -855,22 +855,22 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.01830542331155017</v>
+        <v>0.0823744049019758</v>
       </c>
       <c r="C17">
-        <v>0.00023616</v>
+        <v>0.00106272</v>
       </c>
       <c r="D17">
-        <v>0.002005506937849017</v>
+        <v>0.009024781220320586</v>
       </c>
       <c r="F17">
-        <v>0.001878882725254819</v>
+        <v>0.008454972263646688</v>
       </c>
       <c r="G17">
-        <v>0.002517035244525795</v>
+        <v>0.01132665860036607</v>
       </c>
       <c r="I17">
-        <v>0.0249430082191798</v>
+        <v>0.1122435369863092</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -878,22 +878,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.01442245473031227</v>
+        <v>0.06490104628640518</v>
       </c>
       <c r="C18">
-        <v>0.00023616</v>
+        <v>0.00106272</v>
       </c>
       <c r="D18">
-        <v>0.0006685023126163396</v>
+        <v>0.003008260406773524</v>
       </c>
       <c r="F18">
-        <v>0.001043823736252677</v>
+        <v>0.004697206813137045</v>
       </c>
       <c r="G18">
-        <v>0.005034070489051589</v>
+        <v>0.02265331720073214</v>
       </c>
       <c r="I18">
-        <v>0.02140501126823287</v>
+        <v>0.0963225507070479</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -901,25 +901,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.01386774493299256</v>
+        <v>0.06240485219846657</v>
       </c>
       <c r="C19">
-        <v>0.0011808</v>
+        <v>0.005313599999999998</v>
       </c>
       <c r="D19">
-        <v>0.001337004625232679</v>
+        <v>0.006016520813547048</v>
       </c>
       <c r="E19">
-        <v>0.004641535530011102</v>
+        <v>0.02088690988504996</v>
       </c>
       <c r="F19">
-        <v>0.002505176967006425</v>
+        <v>0.01127329635152891</v>
       </c>
       <c r="G19">
-        <v>0.005034070489051589</v>
+        <v>0.02265331720073214</v>
       </c>
       <c r="I19">
-        <v>0.02856633254429436</v>
+        <v>0.1285484964493246</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -927,19 +927,19 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.02551665067670629</v>
+        <v>0.1148249280451783</v>
       </c>
       <c r="C20">
-        <v>0.0004723199999999999</v>
+        <v>0.00212544</v>
       </c>
       <c r="F20">
-        <v>0.002296412219755889</v>
+        <v>0.01033385498890151</v>
       </c>
       <c r="G20">
-        <v>0.01132665860036607</v>
+        <v>0.0509699637016473</v>
       </c>
       <c r="I20">
-        <v>0.03961204149682825</v>
+        <v>0.1782541867357272</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -947,28 +947,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>0.08598001858455377</v>
+        <v>0.3869100836304923</v>
       </c>
       <c r="C21">
-        <v>0.00070848</v>
+        <v>0.00318816</v>
       </c>
       <c r="D21">
-        <v>0.01470705087755948</v>
+        <v>0.06618172894901758</v>
       </c>
       <c r="E21">
-        <v>0.006962303295016656</v>
+        <v>0.03133036482757495</v>
       </c>
       <c r="F21">
-        <v>0.00772429564826981</v>
+        <v>0.0347593304172141</v>
       </c>
       <c r="G21">
-        <v>0.01132665860036607</v>
+        <v>0.0509699637016473</v>
       </c>
       <c r="H21">
-        <v>0.002920117033979327</v>
+        <v>0.01314052665290697</v>
       </c>
       <c r="I21">
-        <v>0.1303289240397451</v>
+        <v>0.5864801581788532</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -976,28 +976,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>0.147275451188381</v>
+        <v>0.6627395303477142</v>
       </c>
       <c r="C22">
-        <v>0.00070848</v>
+        <v>0.00318816</v>
       </c>
       <c r="D22">
-        <v>0.01938656706587385</v>
+        <v>0.08723955179643231</v>
       </c>
       <c r="E22">
-        <v>0.04061343588759714</v>
+        <v>0.1827604614941871</v>
       </c>
       <c r="F22">
-        <v>0.01377847331853534</v>
+        <v>0.06200312993340905</v>
       </c>
       <c r="G22">
-        <v>0.03901404629014979</v>
+        <v>0.1755632083056739</v>
       </c>
       <c r="H22">
-        <v>0.001460058516989663</v>
+        <v>0.006570263326453485</v>
       </c>
       <c r="I22">
-        <v>0.2622365122675268</v>
+        <v>1.18006430520387</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1005,28 +1005,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>0.1902654604806579</v>
+        <v>0.85619457216296</v>
       </c>
       <c r="C23">
-        <v>0.00070848</v>
+        <v>0.00318816</v>
       </c>
       <c r="D23">
-        <v>0.009359032376628754</v>
+        <v>0.04211564569482933</v>
       </c>
       <c r="E23">
-        <v>0.03713228424008882</v>
+        <v>0.1670952790803997</v>
       </c>
       <c r="F23">
-        <v>0.008141825142770885</v>
+        <v>0.03663821314246896</v>
       </c>
       <c r="G23">
-        <v>0.02013628195620636</v>
+        <v>0.09061326880292857</v>
       </c>
       <c r="H23">
-        <v>0.002920117033979327</v>
+        <v>0.01314052665290697</v>
       </c>
       <c r="I23">
-        <v>0.2686634812303321</v>
+        <v>1.208985665536494</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1034,28 +1034,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>0.184441007608801</v>
+        <v>0.8299845342396043</v>
       </c>
       <c r="C24">
-        <v>0.003778559999999999</v>
+        <v>0.01700352</v>
       </c>
       <c r="D24">
-        <v>0.01604405550279214</v>
+        <v>0.07219824976256468</v>
       </c>
       <c r="E24">
-        <v>0.0324907487100777</v>
+        <v>0.1462083691953497</v>
       </c>
       <c r="F24">
-        <v>0.01127329635152891</v>
+        <v>0.0507298335818801</v>
       </c>
       <c r="G24">
-        <v>0.03649701104562398</v>
+        <v>0.1642365497053079</v>
       </c>
       <c r="H24">
-        <v>0.00438017555096899</v>
+        <v>0.01971078997936045</v>
       </c>
       <c r="I24">
-        <v>0.2889048547697927</v>
+        <v>1.300071846464067</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1063,28 +1063,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>0.1594790667294144</v>
+        <v>0.7176558002823646</v>
       </c>
       <c r="C25">
-        <v>0.005195519999999999</v>
+        <v>0.02337984000000001</v>
       </c>
       <c r="D25">
-        <v>0.01270154393971044</v>
+        <v>0.05715694772869698</v>
       </c>
       <c r="E25">
-        <v>0.0533776585951277</v>
+        <v>0.2401994636780745</v>
       </c>
       <c r="F25">
-        <v>0.02025018048330194</v>
+        <v>0.09112581217485874</v>
       </c>
       <c r="G25">
-        <v>0.03649701104562398</v>
+        <v>0.1642365497053079</v>
       </c>
       <c r="H25">
-        <v>0.01314052665290697</v>
+        <v>0.05913236993808137</v>
       </c>
       <c r="I25">
-        <v>0.3006415074460854</v>
+        <v>1.352886783507384</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1092,28 +1092,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>0.1345171258500279</v>
+        <v>0.6053270663251256</v>
       </c>
       <c r="C26">
-        <v>0.004014719999999999</v>
+        <v>0.01806624</v>
       </c>
       <c r="D26">
-        <v>0.01604405550279214</v>
+        <v>0.07219824976256468</v>
       </c>
       <c r="E26">
-        <v>0.02668882929756385</v>
+        <v>0.1200997318390372</v>
       </c>
       <c r="F26">
-        <v>0.02275535745030838</v>
+        <v>0.1023991085263875</v>
       </c>
       <c r="G26">
-        <v>0.08683771593613977</v>
+        <v>0.3907697217126293</v>
       </c>
       <c r="H26">
-        <v>0.00438017555096899</v>
+        <v>0.01971078997936045</v>
       </c>
       <c r="I26">
-        <v>0.295237979587801</v>
+        <v>1.328570908145105</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1121,28 +1121,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>0.127028543586212</v>
+        <v>0.5716284461379535</v>
       </c>
       <c r="C27">
-        <v>0.006140159999999997</v>
+        <v>0.02763072</v>
       </c>
       <c r="D27">
-        <v>0.01604405550279214</v>
+        <v>0.07219824976256468</v>
       </c>
       <c r="E27">
-        <v>0.02320767765005553</v>
+        <v>0.1044345494252497</v>
       </c>
       <c r="F27">
-        <v>0.02484300492281371</v>
+        <v>0.1117935221526617</v>
       </c>
       <c r="G27">
-        <v>0.07928661020256238</v>
+        <v>0.356789745911531</v>
       </c>
       <c r="H27">
-        <v>0.002920117033979327</v>
+        <v>0.01314052665290697</v>
       </c>
       <c r="I27">
-        <v>0.279470168898415</v>
+        <v>1.257615760042868</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1150,28 +1150,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>0.1256417690929125</v>
+        <v>0.5653879609181059</v>
       </c>
       <c r="C28">
-        <v>0.002597759999999999</v>
+        <v>0.01168992000000001</v>
       </c>
       <c r="D28">
-        <v>0.009359032376628754</v>
+        <v>0.04211564569482933</v>
       </c>
       <c r="E28">
-        <v>0.02784921318006662</v>
+        <v>0.1253214593102998</v>
       </c>
       <c r="F28">
-        <v>0.01336094382403426</v>
+        <v>0.06012424720815421</v>
       </c>
       <c r="G28">
-        <v>0.04278959915693847</v>
+        <v>0.192553196206223</v>
       </c>
       <c r="H28">
-        <v>0.00438017555096899</v>
+        <v>0.01971078997936045</v>
       </c>
       <c r="I28">
-        <v>0.2259784931815496</v>
+        <v>1.016903219316973</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1179,28 +1179,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>0.1553187432495165</v>
+        <v>0.6989343446228242</v>
       </c>
       <c r="C29">
-        <v>0.007320960000000004</v>
+        <v>0.03294431999999999</v>
       </c>
       <c r="D29">
-        <v>0.03008260406773529</v>
+        <v>0.1353717183048086</v>
       </c>
       <c r="E29">
-        <v>0.03481151647508327</v>
+        <v>0.1566518241378747</v>
       </c>
       <c r="F29">
-        <v>0.02192029846130621</v>
+        <v>0.09864134307587799</v>
       </c>
       <c r="G29">
-        <v>0.06418439873540767</v>
+        <v>0.2888297943093346</v>
       </c>
       <c r="H29">
-        <v>0.01168046813591731</v>
+        <v>0.05256210661162788</v>
       </c>
       <c r="I29">
-        <v>0.3253189891249663</v>
+        <v>1.463935451062348</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1208,28 +1208,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>0.1384000944312658</v>
+        <v>0.6228004249406961</v>
       </c>
       <c r="C30">
-        <v>0.003542400000000002</v>
+        <v>0.01594079999999999</v>
       </c>
       <c r="D30">
-        <v>0.0240660832541882</v>
+        <v>0.1082973746438469</v>
       </c>
       <c r="E30">
-        <v>0.01856614212004441</v>
+        <v>0.08354763954019984</v>
       </c>
       <c r="F30">
-        <v>0.02442547542831263</v>
+        <v>0.1099146394274069</v>
       </c>
       <c r="G30">
-        <v>0.03146294055657239</v>
+        <v>0.1415832325045756</v>
       </c>
       <c r="H30">
-        <v>0.005840234067958653</v>
+        <v>0.02628105330581394</v>
       </c>
       <c r="I30">
-        <v>0.2463033698583421</v>
+        <v>1.108365164362539</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1237,28 +1237,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>0.1653035196012713</v>
+        <v>0.7438658382057204</v>
       </c>
       <c r="C31">
-        <v>0.006140159999999997</v>
+        <v>0.02763072</v>
       </c>
       <c r="D31">
-        <v>0.02339758094157188</v>
+        <v>0.1052891142370734</v>
       </c>
       <c r="E31">
-        <v>0.02320767765005553</v>
+        <v>0.1044345494252497</v>
       </c>
       <c r="F31">
-        <v>0.02087647472505353</v>
+        <v>0.09394413626274085</v>
       </c>
       <c r="G31">
-        <v>0.04404811677920138</v>
+        <v>0.1982165255064061</v>
       </c>
       <c r="H31">
-        <v>0.007300292584948317</v>
+        <v>0.03285131663226742</v>
       </c>
       <c r="I31">
-        <v>0.2902738222821019</v>
+        <v>1.306232200269458</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1266,28 +1266,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>0.1919295898726171</v>
+        <v>0.8636831544267763</v>
       </c>
       <c r="C32">
-        <v>0.00873792</v>
+        <v>0.03932064</v>
       </c>
       <c r="D32">
-        <v>0.0220605763163392</v>
+        <v>0.09927259342352641</v>
       </c>
       <c r="E32">
-        <v>0.02784921318006662</v>
+        <v>0.1253214593102998</v>
       </c>
       <c r="F32">
-        <v>0.01711870927454392</v>
+        <v>0.07703419173544758</v>
       </c>
       <c r="G32">
-        <v>0.05663329300183031</v>
+        <v>0.2548498185082363</v>
       </c>
       <c r="H32">
-        <v>0.007300292584948317</v>
+        <v>0.03285131663226742</v>
       </c>
       <c r="I32">
-        <v>0.3316295942303454</v>
+        <v>1.492333174036554</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1295,25 +1295,25 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>0.2207744993332414</v>
+        <v>0.9934852469995865</v>
       </c>
       <c r="C33">
-        <v>0.00212544</v>
+        <v>0.00956448</v>
       </c>
       <c r="D33">
-        <v>0.01069603700186143</v>
+        <v>0.04813216650837639</v>
       </c>
       <c r="E33">
-        <v>0.02320767765005553</v>
+        <v>0.1044345494252497</v>
       </c>
       <c r="F33">
-        <v>0.01106453160427837</v>
+        <v>0.04979039221925267</v>
       </c>
       <c r="G33">
-        <v>0.02391183482299503</v>
+        <v>0.1076032567034776</v>
       </c>
       <c r="I33">
-        <v>0.2917800204124318</v>
+        <v>1.313010091855943</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1321,28 +1321,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>0.2290951462930368</v>
+        <v>1.030928158318666</v>
       </c>
       <c r="C34">
-        <v>0.00070848</v>
+        <v>0.00318816</v>
       </c>
       <c r="D34">
-        <v>0.009359032376628754</v>
+        <v>0.04211564569482933</v>
       </c>
       <c r="E34">
-        <v>0.04061343588759714</v>
+        <v>0.1827604614941871</v>
       </c>
       <c r="F34">
-        <v>0.01127329635152891</v>
+        <v>0.0507298335818801</v>
       </c>
       <c r="G34">
-        <v>0.008809623355840271</v>
+        <v>0.03964330510128119</v>
       </c>
       <c r="H34">
-        <v>0.002920117033979327</v>
+        <v>0.01314052665290697</v>
       </c>
       <c r="I34">
-        <v>0.3027791312986113</v>
+        <v>1.362506090843751</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1350,28 +1350,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>0.160311131425394</v>
+        <v>0.7214000914142733</v>
       </c>
       <c r="C35">
-        <v>0.00070848</v>
+        <v>0.00318816</v>
       </c>
       <c r="D35">
-        <v>0.008690530064012408</v>
+        <v>0.03910738528805584</v>
       </c>
       <c r="E35">
-        <v>0.03133036482757495</v>
+        <v>0.1409866417240872</v>
       </c>
       <c r="F35">
-        <v>0.005845412923014994</v>
+        <v>0.02630435815356747</v>
       </c>
       <c r="G35">
-        <v>0.02642887006752082</v>
+        <v>0.1189299153038437</v>
       </c>
       <c r="H35">
-        <v>0.002920117033979327</v>
+        <v>0.01314052665290697</v>
       </c>
       <c r="I35">
-        <v>0.2362349063414965</v>
+        <v>1.063057078536735</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1379,28 +1379,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>0.1525451942629182</v>
+        <v>0.6864533741831311</v>
       </c>
       <c r="C36">
-        <v>0.00141696</v>
+        <v>0.00637632</v>
       </c>
       <c r="D36">
-        <v>0.00601652081354705</v>
+        <v>0.02707434366096174</v>
       </c>
       <c r="E36">
-        <v>0.03829266812259158</v>
+        <v>0.1723170065516622</v>
       </c>
       <c r="F36">
-        <v>0.005010353934012849</v>
+        <v>0.02254659270305782</v>
       </c>
       <c r="G36">
-        <v>0.01132665860036607</v>
+        <v>0.0509699637016473</v>
       </c>
       <c r="H36">
-        <v>0.002920117033979327</v>
+        <v>0.01314052665290697</v>
       </c>
       <c r="I36">
-        <v>0.217528472767415</v>
+        <v>0.9788781274533671</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1408,28 +1408,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>0.1076137006800222</v>
+        <v>0.4842616530600999</v>
       </c>
       <c r="C37">
-        <v>0.0004723199999999999</v>
+        <v>0.00212544</v>
       </c>
       <c r="D37">
-        <v>0.007353525438779738</v>
+        <v>0.03309086447450879</v>
       </c>
       <c r="E37">
-        <v>0.02784921318006662</v>
+        <v>0.1253214593102998</v>
       </c>
       <c r="F37">
-        <v>0.006680471912017131</v>
+        <v>0.03006212360407711</v>
       </c>
       <c r="G37">
-        <v>0.01258517622262897</v>
+        <v>0.05663329300183031</v>
       </c>
       <c r="H37">
-        <v>0.002920117033979327</v>
+        <v>0.01314052665290697</v>
       </c>
       <c r="I37">
-        <v>0.165474524467494</v>
+        <v>0.7446353601037229</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1437,25 +1437,25 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>0.05547097973197024</v>
+        <v>0.2496194087938663</v>
       </c>
       <c r="C38">
-        <v>0.0004723199999999999</v>
+        <v>0.00212544</v>
       </c>
       <c r="D38">
-        <v>0.003342511563081699</v>
+        <v>0.01504130203386764</v>
       </c>
       <c r="E38">
-        <v>0.01972652600254719</v>
+        <v>0.08876936701146236</v>
       </c>
       <c r="F38">
-        <v>0.002922706461507497</v>
+        <v>0.01315217907678374</v>
       </c>
       <c r="G38">
-        <v>0.006292588111314485</v>
+        <v>0.02831664650091515</v>
       </c>
       <c r="I38">
-        <v>0.08822763187042111</v>
+        <v>0.3970243434168952</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1463,25 +1463,25 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>0.04798239746815427</v>
+        <v>0.2159207886066941</v>
       </c>
       <c r="C39">
-        <v>0.002597759999999999</v>
+        <v>0.01168992000000001</v>
       </c>
       <c r="D39">
-        <v>0.00601652081354705</v>
+        <v>0.02707434366096174</v>
       </c>
       <c r="E39">
-        <v>0.004641535530011102</v>
+        <v>0.02088690988504996</v>
       </c>
       <c r="F39">
-        <v>0.004592824439511777</v>
+        <v>0.02066770997780302</v>
       </c>
       <c r="G39">
-        <v>0.005034070489051589</v>
+        <v>0.02265331720073214</v>
       </c>
       <c r="I39">
-        <v>0.07086510874027578</v>
+        <v>0.3188929893312409</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,19 +1489,19 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>0.03688820152176019</v>
+        <v>0.1659969068479209</v>
       </c>
       <c r="C40">
-        <v>0.002597759999999999</v>
+        <v>0.01168992000000001</v>
       </c>
       <c r="F40">
-        <v>0.003549000703259102</v>
+        <v>0.01597050316466596</v>
       </c>
       <c r="G40">
-        <v>0.008809623355840271</v>
+        <v>0.03964330510128119</v>
       </c>
       <c r="I40">
-        <v>0.05184458558085956</v>
+        <v>0.2333006351138681</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1509,22 +1509,22 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.02274310169010779</v>
+        <v>0.1023439576054851</v>
       </c>
       <c r="C41">
-        <v>0.00023616</v>
+        <v>0.00106272</v>
       </c>
       <c r="D41">
-        <v>0.002005506937849017</v>
+        <v>0.009024781220320586</v>
       </c>
       <c r="F41">
-        <v>0.001878882725254819</v>
+        <v>0.008454972263646688</v>
       </c>
       <c r="G41">
-        <v>0.003775552866788684</v>
+        <v>0.01698998790054912</v>
       </c>
       <c r="I41">
-        <v>0.03063920422000031</v>
+        <v>0.1378764189900015</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1532,22 +1532,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.01941484290618956</v>
+        <v>0.08736679307785303</v>
       </c>
       <c r="C42">
-        <v>0.00023616</v>
+        <v>0.00106272</v>
       </c>
       <c r="D42">
-        <v>0.001337004625232679</v>
+        <v>0.006016520813547048</v>
       </c>
       <c r="F42">
-        <v>0.001043823736252677</v>
+        <v>0.004697206813137045</v>
       </c>
       <c r="G42">
-        <v>0.005034070489051589</v>
+        <v>0.02265331720073214</v>
       </c>
       <c r="I42">
-        <v>0.02706590175672651</v>
+        <v>0.1217965579052693</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1555,25 +1555,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.0141450998316524</v>
+        <v>0.06365294924243585</v>
       </c>
       <c r="C43">
-        <v>0.00070848</v>
+        <v>0.00318816</v>
       </c>
       <c r="D43">
-        <v>0.001337004625232679</v>
+        <v>0.006016520813547048</v>
       </c>
       <c r="E43">
-        <v>0.002320767765005551</v>
+        <v>0.01044345494252498</v>
       </c>
       <c r="F43">
-        <v>0.001878882725254819</v>
+        <v>0.008454972263646688</v>
       </c>
       <c r="G43">
-        <v>0.007551105733577368</v>
+        <v>0.03397997580109823</v>
       </c>
       <c r="I43">
-        <v>0.02794134068072282</v>
+        <v>0.1257360330632528</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1581,19 +1581,19 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.02523929577804644</v>
+        <v>0.1135768310012091</v>
       </c>
       <c r="C44">
-        <v>0.0004723199999999999</v>
+        <v>0.00212544</v>
       </c>
       <c r="F44">
-        <v>0.002505176967006425</v>
+        <v>0.01127329635152891</v>
       </c>
       <c r="G44">
-        <v>0.01384369384489185</v>
+        <v>0.0622966223020134</v>
       </c>
       <c r="I44">
-        <v>0.04206048658994471</v>
+        <v>0.1892721896547514</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1601,28 +1601,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>0.08653472838187354</v>
+        <v>0.3894062777184306</v>
       </c>
       <c r="C45">
-        <v>0.00070848</v>
+        <v>0.00318816</v>
       </c>
       <c r="D45">
-        <v>0.008022027751396068</v>
+        <v>0.03609912488128234</v>
       </c>
       <c r="E45">
-        <v>0.005801919412513882</v>
+        <v>0.02610863735631243</v>
       </c>
       <c r="F45">
-        <v>0.01043823736252676</v>
+        <v>0.04697206813137043</v>
       </c>
       <c r="G45">
-        <v>0.01132665860036607</v>
+        <v>0.0509699637016473</v>
       </c>
       <c r="H45">
-        <v>0.005840234067958653</v>
+        <v>0.02628105330581394</v>
       </c>
       <c r="I45">
-        <v>0.128672285576635</v>
+        <v>0.5790252850948571</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1630,28 +1630,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>0.1519904844655985</v>
+        <v>0.6839571800951925</v>
       </c>
       <c r="C46">
-        <v>0.00023616</v>
+        <v>0.00106272</v>
       </c>
       <c r="D46">
-        <v>0.01270154393971044</v>
+        <v>0.05715694772869698</v>
       </c>
       <c r="E46">
-        <v>0.04061343588759714</v>
+        <v>0.1827604614941871</v>
       </c>
       <c r="F46">
-        <v>0.01398723806578587</v>
+        <v>0.06294257129603643</v>
       </c>
       <c r="G46">
-        <v>0.05159922251277872</v>
+        <v>0.2321965013075044</v>
       </c>
       <c r="H46">
-        <v>0.001460058516989663</v>
+        <v>0.006570263326453485</v>
       </c>
       <c r="I46">
-        <v>0.2725881433884603</v>
+        <v>1.226646645248071</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1659,28 +1659,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>0.193593719264576</v>
+        <v>0.8711717366905926</v>
       </c>
       <c r="C47">
-        <v>0.00070848</v>
+        <v>0.00318816</v>
       </c>
       <c r="D47">
-        <v>0.01136453931447775</v>
+        <v>0.05114042691514994</v>
       </c>
       <c r="E47">
-        <v>0.03481151647508327</v>
+        <v>0.1566518241378747</v>
       </c>
       <c r="F47">
-        <v>0.007306766153768738</v>
+        <v>0.03288044769195932</v>
       </c>
       <c r="G47">
-        <v>0.02265331720073214</v>
+        <v>0.1019399274032946</v>
       </c>
       <c r="H47">
-        <v>0.001460058516989663</v>
+        <v>0.006570263326453485</v>
       </c>
       <c r="I47">
-        <v>0.2718983969256276</v>
+        <v>1.223542786165325</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1688,28 +1688,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>0.176952425344985</v>
+        <v>0.7962859140524327</v>
       </c>
       <c r="C48">
-        <v>0.004014719999999999</v>
+        <v>0.01806624</v>
       </c>
       <c r="D48">
-        <v>0.01804956244064117</v>
+        <v>0.08122303098288519</v>
       </c>
       <c r="E48">
-        <v>0.03597190035758604</v>
+        <v>0.1618735516091371</v>
       </c>
       <c r="F48">
-        <v>0.01169082584602999</v>
+        <v>0.05260871630713494</v>
       </c>
       <c r="G48">
-        <v>0.03272145817883529</v>
+        <v>0.1472465618047589</v>
       </c>
       <c r="H48">
-        <v>0.005840234067958653</v>
+        <v>0.02628105330581394</v>
       </c>
       <c r="I48">
-        <v>0.2852411262360361</v>
+        <v>1.283585068062163</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1717,28 +1717,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>0.1594790667294144</v>
+        <v>0.7176558002823646</v>
       </c>
       <c r="C49">
-        <v>0.005195519999999999</v>
+        <v>0.02337984000000001</v>
       </c>
       <c r="D49">
-        <v>0.01270154393971044</v>
+        <v>0.05715694772869698</v>
       </c>
       <c r="E49">
-        <v>0.0533776585951277</v>
+        <v>0.2401994636780745</v>
       </c>
       <c r="F49">
-        <v>0.02025018048330194</v>
+        <v>0.09112581217485874</v>
       </c>
       <c r="G49">
-        <v>0.03649701104562398</v>
+        <v>0.1642365497053079</v>
       </c>
       <c r="H49">
-        <v>0.01314052665290697</v>
+        <v>0.05913236993808137</v>
       </c>
       <c r="I49">
-        <v>0.3006415074460854</v>
+        <v>1.352886783507384</v>
       </c>
     </row>
   </sheetData>
